--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,125 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2982000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3039000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3040000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2977000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2937000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2907000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2781000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2636000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2569000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2556000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2476000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2338000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2278000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2258000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,8 +826,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +876,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +900,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,8 +946,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +996,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,8 +1046,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1096,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,96 +1117,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2391000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1437000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1432000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1441000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1405000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1249000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1220000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1115000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1040000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>972000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>944000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>591000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1588000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1603000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1545000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1496000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1502000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1481000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1387000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1349000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1441000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1376000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1298000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1306000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1314000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,96 +1237,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-669000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-664000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-609000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-558000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-566000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-605000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-514000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-510000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-493000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-542000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-473000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-431000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-438000</v>
       </c>
       <c r="O20" s="3">
         <v>-431000</v>
       </c>
       <c r="P20" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-431000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1107000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1090000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1029000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1006000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1077000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>986000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>963000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1003000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1004000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>962000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>961000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>972000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1305,96 +1383,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>924000</v>
+      </c>
+      <c r="F23" s="3">
         <v>994000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>987000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>930000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>897000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>967000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>877000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>856000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>899000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>903000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>867000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>868000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>883000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>216000</v>
+      </c>
+      <c r="F24" s="3">
         <v>224000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>234000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>204000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>210000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>247000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>208000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>190000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>323000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>301000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>321000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>304000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>320000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,96 +1533,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>708000</v>
+      </c>
+      <c r="F26" s="3">
         <v>770000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>753000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>726000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>687000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>720000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>669000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>666000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>576000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>602000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>546000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>564000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>563000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>705000</v>
+      </c>
+      <c r="F27" s="3">
         <v>749000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>747000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>705000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>681000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>699000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>663000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>646000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>548000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>589000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>532000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>551000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>550000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1683,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,15 +1715,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-189000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1613,8 +1733,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1783,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,96 +1833,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>664000</v>
+      </c>
+      <c r="F32" s="3">
         <v>609000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>558000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>566000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>605000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>514000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>510000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>493000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>542000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>473000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>431000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>438000</v>
       </c>
       <c r="O32" s="3">
         <v>431000</v>
       </c>
       <c r="P32" s="3">
+        <v>438000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>431000</v>
+      </c>
+      <c r="R32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>705000</v>
+      </c>
+      <c r="F33" s="3">
         <v>749000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>747000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>705000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>681000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>699000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>663000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>646000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>359000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>589000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>532000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>551000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>550000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,101 +1983,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>705000</v>
+      </c>
+      <c r="F35" s="3">
         <v>749000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>747000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>705000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>681000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>699000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>663000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>646000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>359000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>589000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>532000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>551000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>550000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2112,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,69 +2132,77 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10028000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6924000</v>
+      </c>
+      <c r="F41" s="3">
         <v>6075000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>10313000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15169000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13299000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>16019000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15289000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17011000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>13306000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13249000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>12950000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15163000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11914000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1000000</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>1000000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+      <c r="G42" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1000000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -2032,26 +2210,32 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2094,8 +2278,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,8 +2328,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2182,8 +2378,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2226,140 +2428,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>336000</v>
+      </c>
+      <c r="F47" s="3">
         <v>321000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>310000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>284000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>295000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>263000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>275000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>286000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>297000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>349000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>332000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>319000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>326000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1028000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1008000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>980000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>936000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>896000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>874000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>848000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>825000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>800000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>774000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>750000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>734000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="F49" s="3">
         <v>414000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>415000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>415000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>416000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>417000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>417000</v>
       </c>
       <c r="J49" s="3">
         <v>417000</v>
       </c>
       <c r="K49" s="3">
+        <v>417000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>417000</v>
+      </c>
+      <c r="M49" s="3">
         <v>418000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>418000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>419000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>420000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>421000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>421000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2628,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,8 +2678,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2490,8 +2728,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,52 +2778,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112657000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>113996000</v>
+      </c>
+      <c r="F54" s="3">
         <v>110786000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>110707000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>110720000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>109553000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>105842000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>102751000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>101967000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100087000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>97608000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>93757000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>94795000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>92308000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2852,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,8 +2872,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2658,96 +2918,114 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4759000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5247000</v>
+      </c>
+      <c r="F58" s="3">
         <v>200000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2475000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3672000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6511000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1549000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2773000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3270000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5272000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1201000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2201000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4250000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5100000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3476000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3690000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3594000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4317000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4269000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3436000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4154000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3927000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3722000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4105000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3549000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3196000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3185000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3550000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2790,52 +3068,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21339000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20454000</v>
+      </c>
+      <c r="F61" s="3">
         <v>24254000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>22688000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>22604000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>20717000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>25449000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>23479000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>22974000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21054000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>25536000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>24237000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>22573000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>20343000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2878,8 +3168,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3218,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3268,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,52 +3318,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102992000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>102137000</v>
+      </c>
+      <c r="F66" s="3">
         <v>99069000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>99214000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>99461000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>98423000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>94826000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>91862000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>91096000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>89195000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>86421000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>82498000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>83530000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>80985000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3392,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3438,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3488,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3190,10 +3524,10 @@
         <v>563000</v>
       </c>
       <c r="L70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="M70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="N70" s="3">
         <v>560000</v>
@@ -3204,8 +3538,14 @@
       <c r="P70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>560000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,52 +3588,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19175000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>21290000</v>
+      </c>
+      <c r="F72" s="3">
         <v>20720000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>20107000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>19484000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>18906000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>18354000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>17787000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17211000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16687000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>16452000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>15989000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>15568000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15130000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3688,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3738,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,52 +3788,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9102000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11296000</v>
+      </c>
+      <c r="F76" s="3">
         <v>11154000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10930000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10696000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10567000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10453000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10326000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10308000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10329000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10627000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10699000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10705000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10763000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,101 +3888,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>705000</v>
+      </c>
+      <c r="F81" s="3">
         <v>749000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>747000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>705000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>681000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>699000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>663000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>646000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>359000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>589000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>532000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>551000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>550000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,52 +4017,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F83" s="3">
         <v>113000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>103000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>99000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>109000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>110000</v>
       </c>
       <c r="I83" s="3">
         <v>109000</v>
       </c>
       <c r="J83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>109000</v>
+      </c>
+      <c r="L83" s="3">
         <v>107000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>104000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>101000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>95000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>93000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>89000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +4113,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +4163,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4213,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4263,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,52 +4313,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1680000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="F89" s="3">
         <v>819000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1578000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2335000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>761000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1606000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1586000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1238000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1624000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1552000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1019000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1013000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1292000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,52 +4387,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-61000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-69000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-82000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-77000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-60000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-58000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-57000</v>
       </c>
       <c r="L91" s="3">
         <v>-58000</v>
       </c>
       <c r="M91" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-56000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-47000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-47000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4483,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,52 +4533,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2397000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3055000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>916000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,52 +4607,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-141000</v>
+        <v>-138000</v>
       </c>
       <c r="E96" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-145000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-134000</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-151000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-137000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-122000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-142000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-137000</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-139000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-124000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-127000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-128000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4703,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4753,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,52 +4803,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2443000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-30000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-499000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3589000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2120000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-120000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1557000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1522000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2850000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2253000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>837000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4407,48 +4903,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4247000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>852000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>68000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>690000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3711000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1483000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3249000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-162000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2982000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3039000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3040000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2977000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2937000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2907000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2781000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2636000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2569000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2556000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2476000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2338000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2278000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2258000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +891,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -902,8 +914,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,8 +965,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1002,8 +1018,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1071,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,8 +1124,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1119,108 +1144,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2528000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2391000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1451000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1437000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1432000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1441000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1405000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1249000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1220000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1115000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1040000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>972000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>944000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E18" s="3">
         <v>591000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1588000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1603000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1545000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1496000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1502000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1481000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1387000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1349000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1441000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1376000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1298000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1306000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1314000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1239,108 +1271,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-605000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-669000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-664000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-609000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-558000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-566000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-605000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-514000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-510000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-493000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-542000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-473000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-431000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-431000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-338000</v>
+      </c>
+      <c r="E21" s="3">
         <v>45000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1045000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1107000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1090000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1029000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1006000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1077000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>986000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>963000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1003000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1004000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>962000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>961000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>972000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1389,108 +1428,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-461000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>924000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>994000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>987000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>930000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>897000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>967000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>877000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>856000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>899000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>903000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>867000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>868000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>883000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>216000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>224000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>234000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>204000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>210000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>247000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>208000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>190000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>323000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>301000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>321000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>304000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>320000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1539,108 +1587,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-368000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-61000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>708000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>770000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>753000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>726000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>687000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>720000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>669000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>666000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>576000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>602000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>546000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>564000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>563000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-78000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>705000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>749000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>747000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>705000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>681000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>699000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>663000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>646000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>548000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>589000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>532000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>551000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>550000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1689,8 +1746,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,12 +1781,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-189000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1739,8 +1799,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1852,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1839,108 +1905,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E32" s="3">
         <v>669000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>664000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>609000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>558000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>566000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>605000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>514000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>510000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>493000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>542000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>473000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>431000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>438000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>431000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-78000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>705000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>749000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>747000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>705000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>681000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>699000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>663000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>646000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>359000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>589000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>532000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>551000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>550000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,113 +2064,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-78000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>705000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>749000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>747000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>705000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>681000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>699000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>663000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>646000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>359000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>589000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>532000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>551000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>550000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,8 +2198,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,69 +2219,73 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15138000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10028000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6924000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6075000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10313000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15169000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13299000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16019000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15289000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17011000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13306000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13249000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12950000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15163000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11914000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>2549000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>1000000</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>1000000</v>
@@ -2204,8 +2293,8 @@
       <c r="H42" s="3">
         <v>1000000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+      <c r="I42" s="3">
+        <v>1000000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2216,8 +2305,8 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2225,17 +2314,20 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2284,8 +2376,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2334,8 +2429,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2384,8 +2482,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2434,131 +2535,140 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E47" s="3">
         <v>348000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>336000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>321000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>310000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>284000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>295000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>263000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>275000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>286000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>297000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>349000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>332000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>319000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>326000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1070000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1106000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1028000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1008000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>980000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>936000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>896000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>874000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>848000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>825000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>774000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>750000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>734000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>410000</v>
+        <v>351000</v>
       </c>
       <c r="E49" s="3">
         <v>410000</v>
       </c>
       <c r="F49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="G49" s="3">
         <v>414000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>415000</v>
       </c>
       <c r="H49" s="3">
         <v>415000</v>
       </c>
       <c r="I49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="J49" s="3">
         <v>416000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>417000</v>
       </c>
       <c r="K49" s="3">
         <v>417000</v>
@@ -2567,25 +2677,28 @@
         <v>417000</v>
       </c>
       <c r="M49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="N49" s="3">
         <v>418000</v>
       </c>
       <c r="O49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="P49" s="3">
         <v>419000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>420000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>421000</v>
       </c>
       <c r="R49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2634,8 +2747,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2684,8 +2800,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2734,8 +2853,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2784,58 +2906,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113792000</v>
+      </c>
+      <c r="E54" s="3">
         <v>112657000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113996000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110786000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110707000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110720000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109553000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105842000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102751000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>101967000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100087000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97608000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93757000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>94795000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92308000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2854,8 +2982,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,8 +3003,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2924,108 +3054,117 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4759000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5247000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2475000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3672000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6511000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1549000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2773000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3270000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5272000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1201000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2201000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4250000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5100000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3476000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3690000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3594000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4317000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4269000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3436000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4154000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3927000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3722000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4105000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3549000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3196000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3185000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3550000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3074,58 +3213,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21340000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21339000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20454000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24254000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22688000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22604000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20717000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25449000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23479000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22974000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21054000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25536000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24237000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22573000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20343000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3174,8 +3319,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3224,8 +3372,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3274,8 +3425,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3324,58 +3478,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104149000</v>
+      </c>
+      <c r="E66" s="3">
         <v>102992000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102137000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99069000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99214000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99461000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>98423000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>94826000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91862000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91096000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89195000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86421000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82498000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83530000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>80985000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3394,8 +3554,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3444,8 +3605,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3494,13 +3658,16 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="E70" s="3">
         <v>563000</v>
@@ -3530,7 +3697,7 @@
         <v>563000</v>
       </c>
       <c r="N70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="O70" s="3">
         <v>560000</v>
@@ -3544,8 +3711,11 @@
       <c r="R70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3594,58 +3764,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18673000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19175000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21290000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20720000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20107000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19484000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18906000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18354000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17787000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17211000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16687000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16452000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15989000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15568000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15130000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3694,8 +3870,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3744,8 +3923,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3794,58 +3976,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8587000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9102000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11296000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11154000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10930000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10696000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10567000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10453000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10326000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10308000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10329000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10627000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10699000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10705000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10763000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3894,113 +4082,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-78000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>705000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>749000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>747000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>705000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>681000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>699000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>663000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>646000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>359000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>589000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>532000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>551000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>550000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4019,8 +4216,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4028,49 +4226,52 @@
         <v>123000</v>
       </c>
       <c r="E83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="F83" s="3">
         <v>121000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>103000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>109000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>110000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>107000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>104000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>101000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>95000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>93000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4119,8 +4320,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4169,8 +4373,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4219,8 +4426,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4269,8 +4479,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4319,58 +4532,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1587000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1680000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1464000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>819000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1578000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2335000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>761000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1606000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1586000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1238000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1624000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1552000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1019000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1013000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1292000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4389,58 +4608,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-72000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-82000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-77000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-47000</v>
       </c>
       <c r="Q91" s="3">
         <v>-47000</v>
       </c>
       <c r="R91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4489,8 +4712,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4539,58 +4765,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2397000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>916000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4609,58 +4841,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-138000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-153000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-126000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-145000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-118000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-122000</v>
       </c>
       <c r="K96" s="3">
         <v>-122000</v>
       </c>
       <c r="L96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-142000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-137000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-139000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-124000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-127000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-128000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4709,8 +4945,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4759,8 +4998,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4809,58 +5051,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E100" s="3">
         <v>170000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2443000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-499000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3589000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2120000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-120000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1557000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1522000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2850000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2253000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>837000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4909,54 +5157,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3956000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4247000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>852000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>68000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>690000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3711000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1483000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3249000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-162000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,137 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2672000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2982000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3039000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3040000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2977000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2937000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2907000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2781000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2636000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2569000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2556000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2476000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2338000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2278000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2258000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,8 +847,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +903,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -915,8 +927,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,8 +981,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,8 +1037,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,8 +1093,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1149,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1145,114 +1170,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2528000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2391000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1451000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1437000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1432000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1441000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1405000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1249000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1220000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1115000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1040000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>972000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>944000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1515000</v>
+      </c>
+      <c r="E18" s="3">
         <v>144000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>591000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1588000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1603000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1545000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1496000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1502000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1481000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1387000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1349000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1441000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1376000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1298000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1306000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1314000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1272,114 +1304,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-556000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-605000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-669000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-664000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-609000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-558000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-566000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-605000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-514000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-510000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-493000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-542000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-473000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-431000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-438000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-431000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-338000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>45000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1045000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1107000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1090000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1029000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1006000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1077000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>986000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>963000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1003000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1004000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>962000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>961000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>972000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,114 +1470,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-461000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-78000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>924000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>994000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>987000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>930000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>897000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>967000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>877000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>856000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>899000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>903000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>867000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>868000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>883000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-93000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>216000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>224000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>234000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>204000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>210000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>247000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>208000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>190000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>323000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>301000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>321000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>304000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>320000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1590,114 +1638,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-368000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>708000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>770000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>753000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>726000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>687000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>720000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>669000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>666000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>576000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>602000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>546000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>564000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>563000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-369000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-78000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>705000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>749000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>747000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>705000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>681000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>699000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>663000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>646000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>548000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>589000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>532000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>551000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>550000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1749,8 +1806,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1784,12 +1844,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-189000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1802,8 +1862,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1855,8 +1918,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1908,114 +1974,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>556000</v>
+      </c>
+      <c r="E32" s="3">
         <v>605000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>669000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>664000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>609000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>558000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>566000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>605000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>514000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>510000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>493000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>542000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>473000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>431000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>438000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>431000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-369000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-78000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>705000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>749000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>747000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>705000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>681000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>699000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>663000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>646000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>359000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>589000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>532000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>551000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>550000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2067,119 +2142,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-369000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-78000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>705000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>749000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>747000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>705000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>681000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>699000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>663000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>646000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>359000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>589000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>532000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>551000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>550000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,8 +2283,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2220,75 +2305,79 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9513000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15138000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10028000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6924000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6075000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10313000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15169000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13299000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16019000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15289000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17011000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13306000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13249000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12950000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15163000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11914000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2549000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>1000000</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
         <v>1000000</v>
@@ -2296,8 +2385,8 @@
       <c r="I42" s="3">
         <v>1000000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
+      <c r="J42" s="3">
+        <v>1000000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -2308,8 +2397,8 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2317,17 +2406,20 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2379,8 +2471,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2432,8 +2527,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2485,8 +2583,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2538,140 +2639,149 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E47" s="3">
         <v>335000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>348000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>336000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>321000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>310000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>284000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>295000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>263000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>275000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>286000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>297000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>349000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>332000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>319000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>326000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1115000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1070000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1106000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1028000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1008000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>980000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>936000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>896000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>874000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>848000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>825000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>774000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>750000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>734000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E49" s="3">
         <v>351000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>410000</v>
       </c>
       <c r="F49" s="3">
         <v>410000</v>
       </c>
       <c r="G49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="H49" s="3">
         <v>414000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>415000</v>
       </c>
       <c r="I49" s="3">
         <v>415000</v>
       </c>
       <c r="J49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="K49" s="3">
         <v>416000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>417000</v>
       </c>
       <c r="L49" s="3">
         <v>417000</v>
@@ -2680,25 +2790,28 @@
         <v>417000</v>
       </c>
       <c r="N49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="O49" s="3">
         <v>418000</v>
       </c>
       <c r="P49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>419000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>420000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>421000</v>
       </c>
       <c r="S49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +2863,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2803,8 +2919,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2856,8 +2975,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,61 +3031,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>124349000</v>
+      </c>
+      <c r="E54" s="3">
         <v>113792000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112657000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113996000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110786000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110707000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110720000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109553000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105842000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102751000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>101967000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100087000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97608000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>93757000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>94795000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92308000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,8 +3111,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3004,8 +3133,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3057,114 +3187,123 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11250000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1854000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4759000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5247000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2475000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3672000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6511000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1549000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2773000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3270000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5272000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1201000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2201000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4250000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5100000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3541000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3591000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3476000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3690000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3594000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4317000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4269000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3436000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4154000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3927000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3722000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4105000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3549000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3196000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3185000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3550000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3216,61 +3355,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21291000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21340000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21339000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20454000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24254000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22688000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22604000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20717000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25449000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23479000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22974000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21054000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25536000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24237000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22573000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20343000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3322,8 +3467,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,8 +3523,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3428,8 +3579,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,61 +3635,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>114097000</v>
+      </c>
+      <c r="E66" s="3">
         <v>104149000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102992000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102137000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99069000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99214000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>99461000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>98423000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>94826000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91862000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91096000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89195000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86421000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82498000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83530000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>80985000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,8 +3715,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3608,8 +3769,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3661,8 +3825,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3670,7 +3837,7 @@
         <v>1056000</v>
       </c>
       <c r="E70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="F70" s="3">
         <v>563000</v>
@@ -3700,7 +3867,7 @@
         <v>563000</v>
       </c>
       <c r="O70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="P70" s="3">
         <v>560000</v>
@@ -3714,8 +3881,11 @@
       <c r="S70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3767,61 +3937,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19292000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18673000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19175000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21290000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20720000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20107000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19484000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18906000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18354000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17787000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17211000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16687000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16452000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15989000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15568000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15130000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4049,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +4105,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,61 +4161,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9196000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8587000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9102000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11296000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11154000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10930000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10696000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10567000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10453000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10326000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10308000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10329000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10627000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10699000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10705000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10763000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,119 +4273,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-369000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-78000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>705000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>749000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>747000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>705000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>681000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>699000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>663000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>646000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>359000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>589000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>532000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>551000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>550000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4217,61 +4414,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>123000</v>
+        <v>116000</v>
       </c>
       <c r="E83" s="3">
         <v>123000</v>
       </c>
       <c r="F83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="G83" s="3">
         <v>121000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>113000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>103000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>99000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>109000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>110000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>107000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>104000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>101000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>95000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>89000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4323,8 +4524,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4376,8 +4580,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4429,8 +4636,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4482,8 +4692,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4535,61 +4748,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1587000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1680000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1464000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>819000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1578000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2335000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>761000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1606000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1586000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1238000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1624000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1552000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1019000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1013000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1292000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4609,61 +4828,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-94000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-61000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-82000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-57000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-47000</v>
       </c>
       <c r="R91" s="3">
         <v>-47000</v>
       </c>
       <c r="S91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4715,8 +4938,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,61 +4994,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5575000</v>
+      </c>
+      <c r="E94" s="3">
         <v>996000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2397000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>916000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4842,61 +5074,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-151000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-138000</v>
-      </c>
       <c r="F96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-153000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-126000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-145000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-118000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-122000</v>
       </c>
       <c r="L96" s="3">
         <v>-122000</v>
       </c>
       <c r="M96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-142000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-137000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-139000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-127000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-128000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +5184,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5001,8 +5240,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5054,61 +5296,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-799000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1373000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>170000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2443000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-499000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3589000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2120000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-120000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1557000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1522000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2850000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2253000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>837000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5160,57 +5408,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5078000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3956000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4247000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>852000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>68000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>690000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3711000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1483000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3249000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-162000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,143 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2760000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2681000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2672000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2982000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3039000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3040000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2977000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2937000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2907000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2781000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2636000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2569000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2556000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2476000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2338000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2278000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2258000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,8 +856,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,8 +915,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +940,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -984,8 +997,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,8 +1056,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,8 +1115,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1152,8 +1174,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1171,120 +1196,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1166000</v>
+        <v>383000</v>
       </c>
       <c r="E17" s="3">
-        <v>2528000</v>
+        <v>416000</v>
       </c>
       <c r="F17" s="3">
-        <v>2391000</v>
+        <v>482000</v>
       </c>
       <c r="G17" s="3">
+        <v>584000</v>
+      </c>
+      <c r="H17" s="3">
         <v>1451000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1437000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1432000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1441000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1405000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1249000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1220000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1115000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1040000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>972000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>944000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1515000</v>
+        <v>2377000</v>
       </c>
       <c r="E18" s="3">
-        <v>144000</v>
+        <v>2265000</v>
       </c>
       <c r="F18" s="3">
-        <v>591000</v>
+        <v>2190000</v>
       </c>
       <c r="G18" s="3">
+        <v>2398000</v>
+      </c>
+      <c r="H18" s="3">
         <v>1588000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1603000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1545000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1496000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1502000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1481000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1387000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1349000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1441000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1376000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1298000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1306000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1314000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,120 +1337,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-556000</v>
+        <v>-1362000</v>
       </c>
       <c r="E20" s="3">
+        <v>-1306000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2651000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2476000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-664000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-609000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-558000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-605000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-669000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-664000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-609000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-558000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-566000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-605000</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-514000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-510000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-493000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-542000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-473000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-431000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-438000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-431000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1138000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1075000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-338000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>45000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1045000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1107000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1090000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1029000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1006000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1077000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>986000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>963000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1003000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1004000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>962000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>961000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>972000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,120 +1512,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="E23" s="3">
         <v>959000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-461000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-78000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>924000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>994000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>987000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>930000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>897000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>967000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>877000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>856000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>899000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>903000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>867000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>868000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>883000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E24" s="3">
         <v>188000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-93000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>216000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>224000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>234000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>204000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>210000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>247000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>208000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>190000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>323000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>301000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>321000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>304000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>320000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1641,120 +1689,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E26" s="3">
         <v>771000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-368000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>708000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>770000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>753000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>726000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>687000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>720000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>669000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>666000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>576000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>602000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>546000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>564000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>563000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E27" s="3">
         <v>751000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-369000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-78000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>705000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>749000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>747000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>705000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>681000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>699000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>663000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>646000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>548000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>589000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>532000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>551000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>550000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1866,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1847,12 +1907,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-189000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1865,8 +1925,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1921,8 +1984,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1977,120 +2043,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>556000</v>
+        <v>1362000</v>
       </c>
       <c r="E32" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2651000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2476000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>664000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>609000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>558000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>566000</v>
+      </c>
+      <c r="L32" s="3">
         <v>605000</v>
       </c>
-      <c r="F32" s="3">
-        <v>669000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>664000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>609000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>558000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>566000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>605000</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>514000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>510000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>493000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>542000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>473000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>431000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>438000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>431000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E33" s="3">
         <v>751000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-369000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-78000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>705000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>749000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>747000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>705000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>681000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>699000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>663000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>646000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>359000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>589000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>532000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>551000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>550000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2145,125 +2220,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E35" s="3">
         <v>751000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-369000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-78000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>705000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>749000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>747000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>705000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>681000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>699000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>663000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>646000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>359000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>589000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>532000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>551000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>550000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2284,8 +2368,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2306,81 +2391,85 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13564000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9513000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15138000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10028000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6924000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6075000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10313000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15169000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13299000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16019000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15289000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17011000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13306000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13249000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12950000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15163000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11914000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="E42" s="3">
         <v>8048000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2549000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
-        <v>1000000</v>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I42" s="3">
         <v>1000000</v>
@@ -2388,8 +2477,8 @@
       <c r="J42" s="3">
         <v>1000000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
+      <c r="K42" s="3">
+        <v>1000000</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
@@ -2400,8 +2489,8 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2409,17 +2498,20 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2474,8 +2566,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2530,8 +2625,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2586,8 +2684,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2642,120 +2743,129 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E47" s="3">
         <v>323000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>335000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>348000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>336000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>321000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>310000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>284000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>295000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>263000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>275000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>286000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>297000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>349000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>332000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>319000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>326000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1121000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1115000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1070000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1106000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1028000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1008000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>980000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>936000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>896000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>874000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>848000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>825000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>800000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>774000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>750000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>734000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2763,28 +2873,28 @@
         <v>350000</v>
       </c>
       <c r="E49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F49" s="3">
         <v>351000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>410000</v>
       </c>
       <c r="G49" s="3">
         <v>410000</v>
       </c>
       <c r="H49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="I49" s="3">
         <v>414000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>415000</v>
       </c>
       <c r="J49" s="3">
         <v>415000</v>
       </c>
       <c r="K49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="L49" s="3">
         <v>416000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>417000</v>
       </c>
       <c r="M49" s="3">
         <v>417000</v>
@@ -2793,25 +2903,28 @@
         <v>417000</v>
       </c>
       <c r="O49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="P49" s="3">
         <v>418000</v>
       </c>
       <c r="Q49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="R49" s="3">
         <v>419000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>420000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>421000</v>
       </c>
       <c r="T49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2866,8 +2979,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2922,8 +3038,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2978,8 +3097,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3034,64 +3156,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112889000</v>
+      </c>
+      <c r="E54" s="3">
         <v>124349000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113792000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112657000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113996000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110786000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110707000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>110720000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109553000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105842000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102751000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>101967000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100087000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97608000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>93757000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>94795000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92308000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3112,8 +3240,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3134,8 +3263,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3190,120 +3320,129 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4217000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11250000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1854000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4759000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5247000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2475000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3672000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6511000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1549000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2773000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3270000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5272000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1201000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2201000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4250000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5100000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3860000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3541000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3591000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3476000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3690000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3594000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4317000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4269000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3436000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4154000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3927000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3722000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4105000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3549000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3196000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3185000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3550000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3358,64 +3497,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17024000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21291000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21340000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21339000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20454000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24254000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22688000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22604000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20717000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25449000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23479000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22974000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21054000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25536000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24237000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22573000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20343000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3470,8 +3615,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3526,8 +3674,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3582,8 +3733,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3638,64 +3792,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102005000</v>
+      </c>
+      <c r="E66" s="3">
         <v>114097000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>104149000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102992000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102137000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99069000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>99214000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>99461000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>98423000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94826000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91862000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91096000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89195000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86421000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82498000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>83530000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>80985000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3716,8 +3876,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3772,8 +3933,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3828,8 +3992,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3840,7 +4007,7 @@
         <v>1056000</v>
       </c>
       <c r="F70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="G70" s="3">
         <v>563000</v>
@@ -3870,7 +4037,7 @@
         <v>563000</v>
       </c>
       <c r="P70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="Q70" s="3">
         <v>560000</v>
@@ -3884,8 +4051,11 @@
       <c r="T70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3940,64 +4110,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19955000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19292000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18673000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19175000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21290000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20720000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20107000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19484000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18906000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18354000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17787000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17211000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16687000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16452000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15989000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15568000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15130000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4052,8 +4228,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4108,8 +4287,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4164,64 +4346,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9828000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9196000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8587000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9102000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11296000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11154000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10930000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10696000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10567000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10453000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10326000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10308000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10329000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10627000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10699000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10705000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10763000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4276,125 +4464,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E81" s="3">
         <v>751000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-369000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-78000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>705000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>749000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>747000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>705000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>681000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>699000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>663000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>646000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>359000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>589000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>532000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>551000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>550000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4415,64 +4612,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E83" s="3">
         <v>116000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>123000</v>
       </c>
       <c r="F83" s="3">
         <v>123000</v>
       </c>
       <c r="G83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="H83" s="3">
         <v>121000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>113000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>103000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>99000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>110000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>109000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>107000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>104000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>101000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>95000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>89000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4527,8 +4728,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4583,8 +4787,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4639,8 +4846,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4695,8 +4905,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4751,64 +4964,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1296000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1587000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1680000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1464000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>819000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1578000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2335000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>761000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1606000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1586000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1238000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1624000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1552000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1019000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1013000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1292000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4829,64 +5048,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-53000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-94000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-72000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-82000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-47000</v>
       </c>
       <c r="S91" s="3">
         <v>-47000</v>
       </c>
       <c r="T91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4941,8 +5164,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4997,64 +5223,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3696000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>996000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2397000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>916000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5075,64 +5307,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-120000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-151000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-122000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-153000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-126000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-145000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-118000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-122000</v>
       </c>
       <c r="M96" s="3">
         <v>-122000</v>
       </c>
       <c r="N96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-142000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-137000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-124000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-127000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-128000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5187,8 +5423,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5243,8 +5482,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5299,64 +5541,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1829000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-799000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1373000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>170000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2443000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-499000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3589000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2120000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1557000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1522000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2850000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2253000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>837000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5411,60 +5659,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3956000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4247000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>852000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>68000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>690000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3711000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3249000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-162000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,149 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2646000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2760000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2681000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2672000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2982000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3039000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3040000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2977000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2937000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2907000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2781000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2636000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2569000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2556000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2476000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2338000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2278000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2258000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,8 +865,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +927,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +953,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,8 +1013,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1075,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1137,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1177,8 +1199,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1197,126 +1222,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E17" s="3">
         <v>383000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>416000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>482000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>584000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1451000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1437000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1432000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1441000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1405000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1249000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1220000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1115000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1040000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>972000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>944000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2330000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2377000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2265000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2190000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2398000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1588000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1603000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1545000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1496000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1502000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1481000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1387000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1349000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1441000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1376000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1298000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1306000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1314000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1338,126 +1370,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-664000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-609000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-558000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-566000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-605000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-514000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-510000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-493000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-542000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-473000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-431000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-438000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-431000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2198000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1138000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1075000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-338000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>45000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1045000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1107000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1090000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1029000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1006000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1077000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>986000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>963000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1003000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1004000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>962000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>961000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>972000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,126 +1554,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2079000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1015000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>959000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-461000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-78000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>924000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>994000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>987000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>930000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>897000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>967000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>877000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>856000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>899000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>903000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>867000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>868000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>883000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E24" s="3">
         <v>216000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>188000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-93000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-17000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>216000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>224000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>234000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>204000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>210000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>247000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>208000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>190000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>323000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>301000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>321000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>304000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>320000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1692,126 +1740,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="E26" s="3">
         <v>799000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>771000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-368000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>708000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>770000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>753000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>726000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>687000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>720000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>669000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>666000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>576000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>602000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>546000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>564000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>563000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E27" s="3">
         <v>795000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>751000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-369000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-78000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>705000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>749000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>747000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>705000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>681000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>699000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>663000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>646000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>548000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>589000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>532000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>551000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>550000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1869,31 +1926,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1910,12 +1970,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-189000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1928,8 +1988,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1987,8 +2050,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2046,126 +2112,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1362000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1306000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2651000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2476000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>664000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>609000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>558000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>566000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>605000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>514000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>510000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>493000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>542000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>473000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>431000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>438000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>431000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E33" s="3">
         <v>795000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>751000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-369000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-78000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>705000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>749000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>747000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>705000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>681000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>699000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>663000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>646000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>359000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>589000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>532000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>551000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>550000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2223,131 +2298,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E35" s="3">
         <v>795000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>751000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-369000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-78000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>705000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>749000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>747000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>705000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>681000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>699000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>663000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>646000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>359000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>589000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>532000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>551000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>550000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2369,8 +2453,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2392,87 +2477,91 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20348000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13564000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9513000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15138000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10028000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6924000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6075000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10313000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15169000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13299000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16019000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15289000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17011000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13306000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13249000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12950000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15163000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11914000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>2200000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8048000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2549000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
-        <v>1000000</v>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3">
         <v>1000000</v>
@@ -2480,8 +2569,8 @@
       <c r="K42" s="3">
         <v>1000000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
+      <c r="L42" s="3">
+        <v>1000000</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
@@ -2492,8 +2581,8 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2501,17 +2590,20 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2569,8 +2661,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2628,8 +2723,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2687,8 +2785,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2746,126 +2847,135 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E47" s="3">
         <v>353000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>323000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>335000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>348000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>336000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>321000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>310000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>284000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>295000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>263000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>275000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>286000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>297000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>349000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>332000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>319000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>326000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1027000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1121000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1115000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1070000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1106000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1028000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1008000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>980000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>936000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>896000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>874000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>848000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>825000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>774000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>750000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>734000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2876,28 +2986,28 @@
         <v>350000</v>
       </c>
       <c r="F49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="G49" s="3">
         <v>351000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>410000</v>
       </c>
       <c r="H49" s="3">
         <v>410000</v>
       </c>
       <c r="I49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="J49" s="3">
         <v>414000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>415000</v>
       </c>
       <c r="K49" s="3">
         <v>415000</v>
       </c>
       <c r="L49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="M49" s="3">
         <v>416000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>417000</v>
       </c>
       <c r="N49" s="3">
         <v>417000</v>
@@ -2906,25 +3016,28 @@
         <v>417000</v>
       </c>
       <c r="P49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="Q49" s="3">
         <v>418000</v>
       </c>
       <c r="R49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="S49" s="3">
         <v>419000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>420000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>421000</v>
       </c>
       <c r="U49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2982,8 +3095,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3041,8 +3157,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3100,8 +3219,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3159,67 +3281,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113871000</v>
+      </c>
+      <c r="E54" s="3">
         <v>112889000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>124349000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113792000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>112657000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113996000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110786000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>110707000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110720000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109553000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105842000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102751000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>101967000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100087000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>97608000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>93757000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>94795000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92308000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3241,8 +3369,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3264,8 +3393,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3323,126 +3453,135 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4195000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4217000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11250000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1854000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4759000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5247000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2475000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3672000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6511000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1549000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2773000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3270000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5272000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1201000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2201000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4250000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5100000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3961000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3860000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3541000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3591000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3476000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3690000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3594000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4317000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4269000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3436000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4154000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3927000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3722000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4105000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3549000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3196000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3185000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3550000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3500,67 +3639,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16816000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17024000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21291000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21340000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21339000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20454000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24254000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22688000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22604000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20717000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25449000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23479000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22974000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21054000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25536000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24237000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22573000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20343000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3618,8 +3763,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3677,8 +3825,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3736,8 +3887,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3795,67 +3949,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>101717000</v>
+      </c>
+      <c r="E66" s="3">
         <v>102005000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114097000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>104149000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102992000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102137000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>99069000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>99214000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99461000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>98423000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94826000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91862000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91096000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89195000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86421000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82498000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>83530000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>80985000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3877,8 +4037,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3936,8 +4097,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3995,8 +4159,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4010,7 +4177,7 @@
         <v>1056000</v>
       </c>
       <c r="G70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="H70" s="3">
         <v>563000</v>
@@ -4040,7 +4207,7 @@
         <v>563000</v>
       </c>
       <c r="Q70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="R70" s="3">
         <v>560000</v>
@@ -4054,8 +4221,11 @@
       <c r="U70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4113,67 +4283,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21373000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19955000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19292000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18673000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19175000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21290000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20720000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19484000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18906000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18354000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17787000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17211000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16687000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16452000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15989000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15568000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15130000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4231,8 +4407,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4290,8 +4469,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4349,67 +4531,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11098000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9828000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9196000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8587000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9102000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11296000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11154000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10930000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10696000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10567000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10453000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10326000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10308000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10329000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10627000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10699000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10705000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10763000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4467,131 +4655,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E81" s="3">
         <v>795000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>751000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-369000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-78000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>705000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>749000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>747000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>705000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>681000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>699000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>663000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>646000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>359000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>589000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>532000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>551000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>550000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4613,67 +4810,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E83" s="3">
         <v>123000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>116000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>123000</v>
       </c>
       <c r="G83" s="3">
         <v>123000</v>
       </c>
       <c r="H83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="I83" s="3">
         <v>121000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>113000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>103000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>99000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>110000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>109000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>107000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>104000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>101000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>95000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>93000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>89000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4731,8 +4932,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4790,8 +4994,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4849,8 +5056,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4908,8 +5118,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4967,67 +5180,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1508000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1633000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1296000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1587000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1680000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1464000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>819000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1578000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2335000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>761000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1606000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1586000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1238000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1624000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1552000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1019000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1013000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1292000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5049,67 +5268,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-53000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-94000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-72000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-47000</v>
       </c>
       <c r="T91" s="3">
         <v>-47000</v>
       </c>
       <c r="U91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5167,8 +5390,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5226,67 +5452,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6188000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3696000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>996000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2397000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>916000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5308,67 +5540,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-152000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-120000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-151000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-122000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-153000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-126000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-145000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-118000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-122000</v>
       </c>
       <c r="N96" s="3">
         <v>-122000</v>
       </c>
       <c r="O96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-142000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-137000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-139000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-124000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-127000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-128000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5426,8 +5662,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5485,8 +5724,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5544,67 +5786,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-611000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-799000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1373000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>170000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2443000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-499000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3589000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2120000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-120000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1557000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2850000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2253000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>837000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5662,63 +5910,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7085000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3956000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4247000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>852000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>690000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3711000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1483000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3249000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-162000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,155 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2589000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2646000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2760000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2681000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2672000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2982000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3039000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3040000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2977000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2937000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2907000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2781000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2636000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2569000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2556000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2476000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2338000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2278000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2258000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,8 +939,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,8 +966,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1016,8 +1029,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1078,8 +1094,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,8 +1159,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,8 +1224,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1223,132 +1248,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>316000</v>
+        <v>425000</v>
       </c>
       <c r="E17" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="F17" s="3">
         <v>383000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>416000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>482000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>584000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1451000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1437000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1432000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1441000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1405000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1249000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1115000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1040000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>972000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>944000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2330000</v>
+        <v>2164000</v>
       </c>
       <c r="E18" s="3">
+        <v>2695000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2377000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2265000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2190000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2398000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1588000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1603000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1545000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1496000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1502000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1481000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1387000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1349000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1441000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1376000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1298000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1306000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1314000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1371,132 +1403,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-251000</v>
+        <v>58000</v>
       </c>
       <c r="E20" s="3">
+        <v>-616000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-664000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-609000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-558000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-566000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-605000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-514000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-510000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-493000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-542000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-473000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-431000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-438000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-431000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2351000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2198000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1138000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1075000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-338000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>45000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1045000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1107000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1090000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1029000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1006000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1077000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>986000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>963000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1003000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1004000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>962000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>961000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>972000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,132 +1596,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2079000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1015000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>959000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-461000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-78000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>924000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>994000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>987000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>930000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>897000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>967000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>877000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>856000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>899000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>903000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>867000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>868000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>883000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E24" s="3">
         <v>486000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>216000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>188000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-93000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>216000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>224000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>234000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>204000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>210000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>247000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>208000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>190000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>323000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>301000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>321000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>304000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>320000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1743,132 +1791,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1698000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1593000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>799000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>771000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-368000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>708000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>770000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>753000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>726000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>687000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>720000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>669000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>666000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>576000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>602000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>546000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>564000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>563000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1546000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>795000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>751000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-369000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-78000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>705000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>749000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>747000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>705000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>681000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>699000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>663000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>646000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>548000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>589000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>532000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>551000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>550000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1929,8 +1986,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,8 +2015,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1973,12 +2033,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-189000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1991,8 +2051,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2053,8 +2116,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2115,132 +2181,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>251000</v>
+        <v>-58000</v>
       </c>
       <c r="E32" s="3">
+        <v>616000</v>
+      </c>
+      <c r="F32" s="3">
         <v>1362000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1306000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2651000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2476000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>664000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>609000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>558000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>566000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>605000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>514000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>510000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>493000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>542000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>473000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>431000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>438000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>431000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1546000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>795000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>751000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-369000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-78000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>705000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>749000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>747000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>705000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>681000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>699000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>663000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>646000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>359000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>589000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>532000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>551000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>550000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2301,137 +2376,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1546000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>795000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>751000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-369000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-78000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>705000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>749000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>747000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>705000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>681000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>699000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>663000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>646000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>359000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>589000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>532000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>551000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>550000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2454,8 +2538,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2478,70 +2563,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15445000</v>
+      </c>
+      <c r="E41" s="3">
         <v>20348000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13564000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9513000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15138000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10028000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6924000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6075000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10313000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15169000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13299000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16019000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15289000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17011000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13306000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13249000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12950000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15163000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11914000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2549,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>2200000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8048000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2549000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
-        <v>1000000</v>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>1000000</v>
@@ -2572,8 +2661,8 @@
       <c r="L42" s="3">
         <v>1000000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
+      <c r="M42" s="3">
+        <v>1000000</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
@@ -2584,8 +2673,8 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2593,17 +2682,20 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2664,8 +2756,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2726,8 +2821,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2788,8 +2886,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2850,137 +2951,146 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E47" s="3">
         <v>342000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>353000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>323000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>335000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>348000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>336000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>321000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>310000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>284000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>295000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>263000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>275000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>286000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>297000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>349000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>332000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>319000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>326000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1021000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1027000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1121000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1115000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1070000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1106000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1028000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1008000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>980000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>936000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>896000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>874000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>848000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>825000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>774000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>750000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>734000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="E49" s="3">
         <v>350000</v>
@@ -2989,28 +3099,28 @@
         <v>350000</v>
       </c>
       <c r="G49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="H49" s="3">
         <v>351000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>410000</v>
       </c>
       <c r="I49" s="3">
         <v>410000</v>
       </c>
       <c r="J49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="K49" s="3">
         <v>414000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>415000</v>
       </c>
       <c r="L49" s="3">
         <v>415000</v>
       </c>
       <c r="M49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="N49" s="3">
         <v>416000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>417000</v>
       </c>
       <c r="O49" s="3">
         <v>417000</v>
@@ -3019,25 +3129,28 @@
         <v>417000</v>
       </c>
       <c r="Q49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="R49" s="3">
         <v>418000</v>
       </c>
       <c r="S49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="T49" s="3">
         <v>419000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>420000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>421000</v>
       </c>
       <c r="V49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3098,8 +3211,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3160,8 +3276,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3222,8 +3341,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3284,70 +3406,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110985000</v>
+      </c>
+      <c r="E54" s="3">
         <v>113871000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112889000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>124349000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113792000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>112657000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>113996000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>110786000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110707000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110720000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109553000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105842000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102751000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>101967000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100087000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>97608000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>93757000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>94795000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92308000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3370,8 +3498,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3394,8 +3523,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3456,132 +3586,141 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5126000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4195000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4217000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11250000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1854000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4759000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5247000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2475000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3672000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6511000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1549000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2773000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3270000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5272000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1201000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2201000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4250000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5100000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3988000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3961000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3860000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3541000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3591000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3476000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3690000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3594000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4317000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4269000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3436000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4154000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3927000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3722000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4105000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3549000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3196000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3185000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3550000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3642,70 +3781,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14224000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16816000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17024000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21291000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21340000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21339000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20454000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24254000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22688000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22604000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20717000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25449000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23479000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22974000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21054000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25536000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24237000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22573000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20343000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3766,8 +3911,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3828,8 +3976,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3890,8 +4041,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3952,70 +4106,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>97814000</v>
+      </c>
+      <c r="E66" s="3">
         <v>101717000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102005000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114097000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>104149000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102992000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102137000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>99069000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99214000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99461000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>98423000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>94826000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91862000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91096000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89195000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86421000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>82498000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>83530000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>80985000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4038,8 +4198,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4100,8 +4261,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4162,8 +4326,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4180,7 +4347,7 @@
         <v>1056000</v>
       </c>
       <c r="H70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="I70" s="3">
         <v>563000</v>
@@ -4210,7 +4377,7 @@
         <v>563000</v>
       </c>
       <c r="R70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="S70" s="3">
         <v>560000</v>
@@ -4224,8 +4391,11 @@
       <c r="V70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4286,70 +4456,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22936000</v>
+      </c>
+      <c r="E72" s="3">
         <v>21373000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19955000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19292000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18673000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19175000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21290000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20720000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19484000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18906000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18354000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17787000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17211000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16687000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16452000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15989000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15568000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15130000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4410,8 +4586,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4472,8 +4651,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4534,70 +4716,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12115000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11098000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9828000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9196000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8587000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9102000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11296000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11154000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10930000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10696000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10567000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10453000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10326000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10308000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10329000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10627000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10699000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10705000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10763000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4658,137 +4846,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1546000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>795000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>751000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-369000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-78000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>705000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>749000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>747000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>705000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>681000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>699000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>663000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>646000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>359000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>589000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>532000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>551000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>550000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4811,70 +5008,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E83" s="3">
         <v>119000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>123000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>116000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>123000</v>
       </c>
       <c r="H83" s="3">
         <v>123000</v>
       </c>
       <c r="I83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="J83" s="3">
         <v>121000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>113000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>103000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>99000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>109000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>110000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>109000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>107000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>104000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>101000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>95000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>93000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>89000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4935,8 +5136,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4997,8 +5201,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5059,8 +5266,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5121,8 +5331,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5183,70 +5396,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1508000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1633000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1296000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1587000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1680000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1464000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>819000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1578000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2335000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>761000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1606000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1586000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1238000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1624000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1552000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1019000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1013000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1292000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5269,70 +5488,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-53000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-94000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-72000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-82000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-47000</v>
       </c>
       <c r="U91" s="3">
         <v>-47000</v>
       </c>
       <c r="V91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5393,8 +5616,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5455,70 +5681,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="E94" s="3">
         <v>6188000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3696000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>996000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2397000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>916000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5541,70 +5773,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-120000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-152000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-120000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-151000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-122000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-153000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-126000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-145000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-118000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-122000</v>
       </c>
       <c r="O96" s="3">
         <v>-122000</v>
       </c>
       <c r="P96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-142000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-137000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-139000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-124000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-127000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-128000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5665,8 +5901,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5727,8 +5966,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5789,70 +6031,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4607000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-611000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-799000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1373000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>170000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2443000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-30000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-499000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3589000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2120000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-120000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1522000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2850000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2253000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>837000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5913,66 +6161,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4306000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7085000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3500000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3956000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4247000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>852000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>690000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3711000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1483000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3249000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-162000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,161 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2674000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2589000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2646000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2760000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2681000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2672000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2982000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3039000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3040000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2977000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2937000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2907000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2781000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2636000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2569000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2556000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2476000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2338000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2278000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2258000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +883,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -942,8 +951,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,8 +979,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,8 +1045,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1097,8 +1113,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,8 +1181,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,8 +1249,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1249,138 +1274,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E17" s="3">
         <v>425000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-49000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>383000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>416000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>482000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>584000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1451000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1437000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1432000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1441000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1405000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1249000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1220000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1115000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1040000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>972000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>944000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2164000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2695000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2377000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2265000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2190000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2398000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1588000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1603000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1545000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1496000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1502000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1481000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1387000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1349000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1441000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1376000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1298000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1306000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1314000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1404,138 +1436,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-818000</v>
+      </c>
+      <c r="E20" s="3">
         <v>58000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-616000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-664000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-609000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-558000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-566000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-605000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-514000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-510000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-493000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-542000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-473000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-431000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-438000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-431000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1541000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2351000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2198000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1138000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1075000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-338000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>45000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1045000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1107000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1090000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1029000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1006000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1077000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>986000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>963000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1003000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1004000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>962000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>961000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>972000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,138 +1638,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2222000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2079000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1015000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>959000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-461000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-78000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>924000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>994000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>987000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>930000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>897000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>967000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>877000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>856000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>899000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>903000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>867000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>868000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>883000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E24" s="3">
         <v>524000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>486000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>216000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>188000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-93000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>216000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>224000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>234000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>204000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>210000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>247000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>208000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>190000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>323000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>301000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>321000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>304000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>320000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1794,138 +1842,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1091000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1698000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1593000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>799000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>771000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-368000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>708000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>770000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>753000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>726000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>687000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>720000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>669000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>666000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>576000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>602000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>546000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>564000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>563000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1688000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1546000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>795000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>751000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-369000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-78000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>705000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>749000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>747000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>705000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>681000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>699000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>663000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>646000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>548000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>589000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>532000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>551000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>550000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1989,8 +2046,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2018,8 +2078,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2036,12 +2096,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-189000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2054,8 +2114,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2119,8 +2182,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2184,138 +2250,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-58000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>616000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1362000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1306000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2651000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2476000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>664000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>609000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>558000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>566000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>605000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>514000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>510000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>493000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>542000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>473000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>431000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>438000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>431000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1688000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1546000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>795000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>751000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-369000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-78000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>705000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>749000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>747000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>705000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>681000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>699000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>663000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>646000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>359000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>589000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>532000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>551000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>550000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2379,143 +2454,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1688000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1546000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>795000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>751000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-369000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-78000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>705000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>749000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>747000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>705000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>681000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>699000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>663000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>646000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>359000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>589000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>532000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>551000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>550000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2539,8 +2623,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2564,73 +2649,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12716000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15445000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20348000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13564000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9513000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15138000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10028000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6924000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6075000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10313000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15169000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13299000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16019000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15289000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17011000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13306000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13249000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12950000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15163000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11914000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2641,22 +2730,22 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>2200000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8048000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2549000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>1000000</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>1000000</v>
@@ -2664,8 +2753,8 @@
       <c r="M42" s="3">
         <v>1000000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
+      <c r="N42" s="3">
+        <v>1000000</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
@@ -2676,8 +2765,8 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2685,17 +2774,20 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2759,8 +2851,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2824,8 +2919,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2889,8 +2987,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2954,138 +3055,147 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E47" s="3">
         <v>343000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>342000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>353000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>323000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>335000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>348000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>336000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>321000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>310000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>284000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>295000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>263000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>275000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>286000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>297000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>349000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>332000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>319000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>326000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E48" s="3">
         <v>986000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1021000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1027000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1121000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1115000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1070000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1106000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1028000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1008000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>980000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>936000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>896000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>874000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>848000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>825000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>774000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>750000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>734000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3093,7 +3203,7 @@
         <v>256000</v>
       </c>
       <c r="E49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="F49" s="3">
         <v>350000</v>
@@ -3102,28 +3212,28 @@
         <v>350000</v>
       </c>
       <c r="H49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="I49" s="3">
         <v>351000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>410000</v>
       </c>
       <c r="J49" s="3">
         <v>410000</v>
       </c>
       <c r="K49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="L49" s="3">
         <v>414000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>415000</v>
       </c>
       <c r="M49" s="3">
         <v>415000</v>
       </c>
       <c r="N49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="O49" s="3">
         <v>416000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>417000</v>
       </c>
       <c r="P49" s="3">
         <v>417000</v>
@@ -3132,25 +3242,28 @@
         <v>417000</v>
       </c>
       <c r="R49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="S49" s="3">
         <v>418000</v>
       </c>
       <c r="T49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="U49" s="3">
         <v>419000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>420000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>421000</v>
       </c>
       <c r="W49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3214,8 +3327,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3279,8 +3395,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3344,8 +3463,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3409,73 +3531,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108544000</v>
+      </c>
+      <c r="E54" s="3">
         <v>110985000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113871000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112889000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>124349000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113792000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112657000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113996000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110786000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110707000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110720000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109553000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105842000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102751000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>101967000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100087000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>97608000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>93757000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>94795000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92308000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3499,8 +3627,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3524,8 +3653,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3589,138 +3719,147 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>5126000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4195000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4217000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11250000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1854000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4759000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5247000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2475000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3672000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6511000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1549000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2773000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3270000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5272000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1201000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2201000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4250000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5100000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4203000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3988000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3961000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3860000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3541000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3591000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3476000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3690000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3594000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4317000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4269000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3436000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4154000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3927000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3722000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4105000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3549000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3196000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3185000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3550000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3784,73 +3923,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18516000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14224000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16816000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17024000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21291000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21340000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21339000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20454000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24254000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22688000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22604000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20717000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25449000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23479000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22974000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21054000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25536000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24237000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22573000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20343000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3914,8 +4059,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3979,8 +4127,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4044,8 +4195,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4109,73 +4263,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95281000</v>
+      </c>
+      <c r="E66" s="3">
         <v>97814000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>101717000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102005000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>114097000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104149000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102992000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102137000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99069000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99214000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99461000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>98423000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>94826000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91862000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91096000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89195000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86421000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>82498000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>83530000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>80985000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4199,8 +4359,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4264,8 +4425,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4329,8 +4493,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4350,7 +4517,7 @@
         <v>1056000</v>
       </c>
       <c r="I70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="J70" s="3">
         <v>563000</v>
@@ -4380,7 +4547,7 @@
         <v>563000</v>
       </c>
       <c r="S70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="T70" s="3">
         <v>560000</v>
@@ -4394,8 +4561,11 @@
       <c r="W70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4459,73 +4629,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23846000</v>
+      </c>
+      <c r="E72" s="3">
         <v>22936000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21373000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19955000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19292000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18673000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19175000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21290000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20720000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19484000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18906000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18354000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17787000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17211000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16687000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16452000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15989000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15568000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15130000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4589,8 +4765,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4654,8 +4833,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4719,73 +4901,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12207000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12115000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11098000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9828000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9196000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8587000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9102000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11296000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11154000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10930000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10696000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10567000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10453000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10326000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10308000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10329000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10627000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10699000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10705000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10763000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4849,143 +5037,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1688000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1546000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>795000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>751000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-369000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-78000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>705000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>749000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>747000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>705000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>681000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>699000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>663000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>646000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>359000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>589000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>532000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>551000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>550000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5009,73 +5206,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E83" s="3">
         <v>129000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>119000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>123000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>116000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>123000</v>
       </c>
       <c r="I83" s="3">
         <v>123000</v>
       </c>
       <c r="J83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K83" s="3">
         <v>121000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>113000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>103000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>99000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>109000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>110000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>109000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>107000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>104000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>101000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>95000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>93000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>89000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5139,8 +5340,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5204,8 +5408,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5269,8 +5476,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5334,8 +5544,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5399,73 +5612,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1548000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1508000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1633000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1296000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1587000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1680000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1464000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>819000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1578000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2335000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>761000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1606000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1586000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1238000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1624000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1552000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1019000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1013000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1292000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5489,73 +5708,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-53000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-94000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-72000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-57000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-58000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-47000</v>
       </c>
       <c r="V91" s="3">
         <v>-47000</v>
       </c>
       <c r="W91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="X91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5619,8 +5842,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5684,73 +5910,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1510000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6188000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3696000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>996000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2397000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>916000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5774,73 +6006,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-151000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-120000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-152000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-120000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-151000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-122000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-153000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-126000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-145000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-118000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-122000</v>
       </c>
       <c r="P96" s="3">
         <v>-122000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-142000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-137000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-139000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-124000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-127000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-128000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5904,8 +6140,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5969,8 +6208,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6034,73 +6276,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3731000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-611000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-799000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1373000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>170000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2443000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-499000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3589000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2120000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-120000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1557000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1522000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2850000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2253000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>837000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6164,69 +6412,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3620000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7085000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3956000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4247000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>852000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>690000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3711000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1483000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3249000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-162000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,167 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2742000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2674000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2589000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2646000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2760000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2681000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2672000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2982000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3039000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3040000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2977000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2937000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2907000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2781000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2636000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2569000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2556000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2476000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2338000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2278000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2258000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,8 +892,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +963,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +992,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1061,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,8 +1132,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,8 +1203,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,8 +1274,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1275,76 +1300,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E17" s="3">
         <v>454000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>425000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-49000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>383000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>416000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>482000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>584000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1451000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1437000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1432000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1441000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1405000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1249000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1220000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1115000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1040000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>972000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>944000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1352,67 +1381,70 @@
         <v>2220000</v>
       </c>
       <c r="E18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2164000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2695000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2377000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2265000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2190000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2398000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1588000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1603000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1545000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1496000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1502000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1481000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1387000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1349000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1441000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1376000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1298000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1306000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1314000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1437,144 +1469,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-859000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-818000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>58000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-616000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-664000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-609000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-558000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-566000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-605000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-514000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-510000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-493000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-542000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-473000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-431000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-438000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-431000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1505000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1541000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2351000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2198000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1138000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1075000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-338000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>45000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1045000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1107000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1090000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1029000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1006000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1077000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>986000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>963000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1003000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1004000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>962000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>961000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>972000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1641,144 +1680,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1402000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2222000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2079000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1015000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>959000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-461000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-78000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>924000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>994000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>987000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>930000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>897000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>967000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>877000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>856000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>899000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>903000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>867000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>868000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>883000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E24" s="3">
         <v>311000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>524000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>486000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>216000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>188000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-93000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>216000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>224000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>234000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>204000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>210000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>247000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>208000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>190000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>323000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>301000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>321000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>304000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>320000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1845,144 +1893,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1091000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1698000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1593000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>799000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>771000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-368000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>708000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>770000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>753000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>726000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>687000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>720000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>669000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>666000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>576000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>602000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>546000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>564000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>563000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1055000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1688000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1546000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>795000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>751000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-369000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-78000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>705000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>749000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>747000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>705000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>681000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>699000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>663000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>646000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>548000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>589000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>532000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>551000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>550000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2049,8 +2106,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2081,8 +2141,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2099,12 +2159,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-189000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2117,8 +2177,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2185,8 +2248,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2253,144 +2319,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E32" s="3">
         <v>818000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-58000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>616000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1362000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1306000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2651000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2476000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>664000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>609000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>558000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>566000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>605000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>514000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>510000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>493000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>542000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>473000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>431000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>438000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>431000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1055000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1688000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1546000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>795000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>751000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-369000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-78000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>705000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>749000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>747000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>705000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>681000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>699000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>663000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>646000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>359000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>589000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>532000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>551000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>550000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2457,149 +2532,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1055000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1688000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1546000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>795000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>751000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-369000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-78000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>705000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>749000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>747000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>705000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>681000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>699000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>663000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>646000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>359000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>589000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>532000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>551000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>550000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2624,8 +2708,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2650,76 +2735,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8750000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12716000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15445000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20348000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13564000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9513000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15138000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10028000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6924000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6075000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10313000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15169000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13299000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16019000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15289000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17011000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13306000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13249000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12950000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15163000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11914000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2733,22 +2822,22 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>2200000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8048000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2549000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>1000000</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>1000000</v>
@@ -2756,8 +2845,8 @@
       <c r="N42" s="3">
         <v>1000000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
+      <c r="O42" s="3">
+        <v>1000000</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
@@ -2768,8 +2857,8 @@
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2777,17 +2866,20 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2854,8 +2946,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2922,8 +3017,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2990,8 +3088,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3058,155 +3159,164 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E47" s="3">
         <v>366000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>343000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>342000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>353000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>323000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>335000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>348000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>336000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>321000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>310000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>284000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>295000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>263000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>275000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>286000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>297000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>349000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>332000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>319000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>326000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E48" s="3">
         <v>987000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>986000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1021000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1027000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1121000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1115000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1070000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1106000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1028000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1008000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>980000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>936000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>896000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>874000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>848000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>825000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>800000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>774000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>750000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>734000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="E49" s="3">
         <v>256000</v>
       </c>
       <c r="F49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="G49" s="3">
         <v>350000</v>
@@ -3215,28 +3325,28 @@
         <v>350000</v>
       </c>
       <c r="I49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="J49" s="3">
         <v>351000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>410000</v>
       </c>
       <c r="K49" s="3">
         <v>410000</v>
       </c>
       <c r="L49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="M49" s="3">
         <v>414000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>415000</v>
       </c>
       <c r="N49" s="3">
         <v>415000</v>
       </c>
       <c r="O49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="P49" s="3">
         <v>416000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>417000</v>
       </c>
       <c r="Q49" s="3">
         <v>417000</v>
@@ -3245,25 +3355,28 @@
         <v>417000</v>
       </c>
       <c r="S49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="T49" s="3">
         <v>418000</v>
       </c>
       <c r="U49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="V49" s="3">
         <v>419000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>420000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>421000</v>
       </c>
       <c r="X49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3330,8 +3443,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3398,8 +3514,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3466,8 +3585,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3534,76 +3656,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110242000</v>
+      </c>
+      <c r="E54" s="3">
         <v>108544000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110985000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113871000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>112889000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>124349000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>113792000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112657000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113996000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110786000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110707000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>110720000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109553000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105842000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>102751000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>101967000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100087000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>97608000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>93757000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>94795000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92308000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3628,8 +3756,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3654,8 +3783,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3722,144 +3852,153 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>6935000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>5126000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4195000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4217000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11250000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1854000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4759000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5247000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2475000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3672000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6511000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1549000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2773000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3270000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5272000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1201000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2201000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4250000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5100000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4214000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4203000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3988000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3961000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3860000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3541000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3591000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3476000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3690000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3594000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4317000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4269000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3436000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4154000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3927000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3722000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4105000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3549000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3196000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3185000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3550000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3926,76 +4065,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13292000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18516000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14224000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16816000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17024000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21291000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21340000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21339000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20454000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24254000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22688000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22604000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20717000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25449000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23479000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22974000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21054000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25536000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24237000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22573000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20343000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4062,8 +4207,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4130,8 +4278,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4198,8 +4349,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4266,76 +4420,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>96834000</v>
+      </c>
+      <c r="E66" s="3">
         <v>95281000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>97814000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>101717000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102005000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>114097000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104149000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102992000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102137000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99069000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99214000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99461000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>98423000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>94826000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91862000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91096000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89195000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86421000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>82498000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>83530000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>80985000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4360,8 +4520,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4428,8 +4589,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4496,8 +4660,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4520,7 +4687,7 @@
         <v>1056000</v>
       </c>
       <c r="J70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="K70" s="3">
         <v>563000</v>
@@ -4550,7 +4717,7 @@
         <v>563000</v>
       </c>
       <c r="T70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="U70" s="3">
         <v>560000</v>
@@ -4564,8 +4731,11 @@
       <c r="X70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4632,76 +4802,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24766000</v>
+      </c>
+      <c r="E72" s="3">
         <v>23846000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22936000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21373000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19955000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19292000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18673000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19175000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21290000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20720000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19484000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18906000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18354000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17787000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17211000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16687000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16452000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15989000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15568000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15130000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4768,8 +4944,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4836,8 +5015,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4904,76 +5086,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12352000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12207000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12115000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11098000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9828000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9196000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8587000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9102000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11296000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11154000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10930000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10696000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10567000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10453000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10326000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10308000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10329000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10627000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10699000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10705000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10763000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5040,149 +5228,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1055000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1688000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1546000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>795000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>751000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-369000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-78000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>705000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>749000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>747000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>705000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>681000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>699000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>663000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>646000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>359000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>589000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>532000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>551000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>550000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5207,76 +5404,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E83" s="3">
         <v>139000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>129000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>119000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>123000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>116000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>123000</v>
       </c>
       <c r="J83" s="3">
         <v>123000</v>
       </c>
       <c r="K83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="L83" s="3">
         <v>121000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>113000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>103000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>99000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>109000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>110000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>109000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>107000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>104000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>101000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>95000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>93000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>89000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5343,8 +5544,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5411,8 +5615,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5479,8 +5686,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5547,8 +5757,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5615,76 +5828,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1621000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1548000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1508000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1633000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1296000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1587000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1680000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1464000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>819000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1578000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2335000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>761000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1606000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1586000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1238000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1624000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1552000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1019000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1013000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1292000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5709,76 +5928,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-53000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-94000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-82000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-57000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-58000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-47000</v>
       </c>
       <c r="W91" s="3">
         <v>-47000</v>
       </c>
       <c r="X91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5845,8 +6068,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5913,76 +6139,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3391000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6188000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3696000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>996000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2397000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>916000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6007,76 +6239,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>219000</v>
+        <v>-147000</v>
       </c>
       <c r="E96" s="3">
         <v>-151000</v>
       </c>
       <c r="F96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-120000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-152000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-120000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-151000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-122000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-153000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-126000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-145000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-118000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-122000</v>
       </c>
       <c r="Q96" s="3">
         <v>-122000</v>
       </c>
       <c r="R96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-142000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-137000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-139000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-124000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-127000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-128000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6143,8 +6379,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6211,8 +6450,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6279,76 +6521,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-611000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-799000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1373000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>170000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2443000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-499000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3589000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2120000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-120000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1557000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1522000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2850000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2253000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>837000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6415,72 +6663,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1416000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7085000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3956000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4247000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>852000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>68000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>690000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3711000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1483000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3249000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-162000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,173 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2742000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2674000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2589000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2646000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2760000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2681000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2672000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2982000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3039000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3040000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2977000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2937000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2907000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2781000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2636000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2569000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2556000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2476000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2338000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2278000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2258000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,8 +901,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +975,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1005,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,8 +1077,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1135,8 +1151,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,8 +1225,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,8 +1299,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1301,150 +1326,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E17" s="3">
         <v>522000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>454000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>425000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-49000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>383000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>416000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>482000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>584000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1451000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1437000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1432000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1441000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1405000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1249000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1220000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1115000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1040000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>972000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>944000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2220000</v>
+        <v>2325000</v>
       </c>
       <c r="E18" s="3">
         <v>2220000</v>
       </c>
       <c r="F18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="G18" s="3">
         <v>2164000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2695000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2377000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2265000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2190000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2398000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1588000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1603000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1545000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1496000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1502000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1481000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1387000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1349000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1441000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1376000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1298000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1306000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1314000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1470,150 +1502,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-707000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-859000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-818000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>58000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-616000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-664000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-609000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-558000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-566000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-605000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-514000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-510000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-493000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-542000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-473000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-431000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-438000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-431000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1505000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1541000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2351000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2198000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1138000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1075000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-338000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>45000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1045000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1107000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1090000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1029000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1077000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>986000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>963000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1003000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1004000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>962000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>961000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>972000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1683,150 +1722,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1361000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1402000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2222000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2079000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1015000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>959000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-461000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-78000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>924000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>994000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>987000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>930000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>897000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>967000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>877000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>856000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>899000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>903000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>867000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>868000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>883000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E24" s="3">
         <v>294000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>311000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>524000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>486000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>216000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>188000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-93000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>216000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>224000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>234000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>204000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>210000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>247000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>208000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>190000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>323000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>301000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>321000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>304000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>320000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1896,150 +1944,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1067000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1091000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1698000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1593000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>799000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>771000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-368000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>708000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>770000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>753000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>726000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>687000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>720000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>669000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>666000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>576000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>602000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>546000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>564000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>563000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1062000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1055000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1688000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1546000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>795000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>751000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-369000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-78000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>705000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>749000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>747000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>705000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>681000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>699000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>663000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>646000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>548000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>589000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>532000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>551000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>550000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2109,8 +2166,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2144,8 +2204,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2162,12 +2222,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-189000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2180,8 +2240,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2251,8 +2314,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2322,150 +2388,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E32" s="3">
         <v>859000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>818000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-58000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>616000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1362000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1306000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2651000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2476000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>664000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>609000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>558000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>566000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>605000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>514000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>510000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>493000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>542000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>473000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>431000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>438000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>431000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1062000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1055000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1688000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1546000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>795000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>751000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-369000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-78000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>705000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>749000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>747000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>705000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>681000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>699000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>663000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>646000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>359000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>589000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>532000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>551000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>550000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2535,155 +2610,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1062000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1055000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1688000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1546000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>795000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>751000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-369000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-78000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>705000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>749000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>747000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>705000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>681000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>699000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>663000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>646000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>359000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>589000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>532000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>551000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>550000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2709,8 +2793,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2736,84 +2821,88 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9625000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8750000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12716000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15445000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20348000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13564000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9513000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15138000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10028000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6924000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6075000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10313000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15169000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13299000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16019000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15289000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17011000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13306000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13249000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12950000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15163000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11914000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2825,22 +2914,22 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>2200000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8048000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2549000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>1000000</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N42" s="3">
         <v>1000000</v>
@@ -2848,8 +2937,8 @@
       <c r="O42" s="3">
         <v>1000000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
+      <c r="P42" s="3">
+        <v>1000000</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
@@ -2860,8 +2949,8 @@
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2869,17 +2958,20 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
+      <c r="W42" s="3">
+        <v>0</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2949,8 +3041,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3020,8 +3115,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3091,8 +3189,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3162,150 +3263,159 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E47" s="3">
         <v>388000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>366000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>343000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>342000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>353000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>323000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>335000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>348000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>336000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>321000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>310000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>284000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>295000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>263000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>275000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>286000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>297000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>349000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>332000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>319000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>326000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="E48" s="3">
         <v>983000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>987000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>986000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1021000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1027000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1121000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1115000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1070000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1106000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1028000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1008000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>980000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>936000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>896000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>874000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>848000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>825000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>800000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>774000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>750000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>734000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3313,13 +3423,13 @@
         <v>255000</v>
       </c>
       <c r="E49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="F49" s="3">
         <v>256000</v>
       </c>
       <c r="G49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="H49" s="3">
         <v>350000</v>
@@ -3328,28 +3438,28 @@
         <v>350000</v>
       </c>
       <c r="J49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="K49" s="3">
         <v>351000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>410000</v>
       </c>
       <c r="L49" s="3">
         <v>410000</v>
       </c>
       <c r="M49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="N49" s="3">
         <v>414000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>415000</v>
       </c>
       <c r="O49" s="3">
         <v>415000</v>
       </c>
       <c r="P49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>416000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>417000</v>
       </c>
       <c r="R49" s="3">
         <v>417000</v>
@@ -3358,25 +3468,28 @@
         <v>417000</v>
       </c>
       <c r="T49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="U49" s="3">
         <v>418000</v>
       </c>
       <c r="V49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="W49" s="3">
         <v>419000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>420000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>421000</v>
       </c>
       <c r="Y49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3446,8 +3559,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3517,8 +3633,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3588,8 +3707,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3659,79 +3781,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107412000</v>
+      </c>
+      <c r="E54" s="3">
         <v>110242000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108544000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110985000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113871000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>112889000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>124349000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113792000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112657000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113996000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110786000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>110707000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110720000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109553000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105842000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>102751000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>101967000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>100087000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>97608000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>93757000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>94795000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>92308000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3757,8 +3885,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3784,8 +3913,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3855,150 +3985,159 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2638000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6935000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>5126000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4195000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4217000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11250000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1854000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4759000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5247000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2475000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3672000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6511000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1549000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2773000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3270000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5272000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1201000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2201000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4250000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5100000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4365000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4214000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4203000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3988000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3961000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3860000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3541000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3591000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3476000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3690000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3594000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4317000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4269000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3436000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4154000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3927000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3722000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4105000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3549000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3196000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3185000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3550000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4068,79 +4207,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14494000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13292000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18516000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14224000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16816000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17024000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21291000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21340000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21339000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20454000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24254000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22688000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22604000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20717000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25449000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23479000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22974000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21054000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25536000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24237000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22573000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20343000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4210,8 +4355,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4281,8 +4429,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4352,8 +4503,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4423,79 +4577,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93979000</v>
+      </c>
+      <c r="E66" s="3">
         <v>96834000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>95281000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>97814000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>101717000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102005000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>114097000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104149000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102992000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102137000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99069000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99214000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99461000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>98423000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>94826000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91862000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91096000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89195000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86421000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>82498000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>83530000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>80985000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4521,8 +4681,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4592,8 +4753,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4663,8 +4827,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4690,7 +4857,7 @@
         <v>1056000</v>
       </c>
       <c r="K70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="L70" s="3">
         <v>563000</v>
@@ -4720,7 +4887,7 @@
         <v>563000</v>
       </c>
       <c r="U70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="V70" s="3">
         <v>560000</v>
@@ -4734,8 +4901,11 @@
       <c r="Y70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4805,79 +4975,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25833000</v>
+      </c>
+      <c r="E72" s="3">
         <v>24766000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23846000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22936000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21373000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19955000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19292000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18673000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19175000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21290000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20720000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19484000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18906000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18354000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17787000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17211000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16687000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16452000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15989000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15568000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15130000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4947,8 +5123,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5018,8 +5197,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5089,79 +5271,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12377000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12352000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12207000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12115000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11098000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9828000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9196000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8587000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9102000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11296000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11154000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10930000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10696000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10567000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10453000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10326000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10308000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10329000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10627000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10699000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10705000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10763000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5231,155 +5419,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1062000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1055000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1688000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1546000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>795000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>751000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-369000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-78000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>705000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>749000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>747000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>705000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>681000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>699000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>663000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>646000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>359000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>589000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>532000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>551000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>550000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5405,79 +5602,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E83" s="3">
         <v>144000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>139000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>129000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>119000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>123000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>116000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>123000</v>
       </c>
       <c r="K83" s="3">
         <v>123000</v>
       </c>
       <c r="L83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="M83" s="3">
         <v>121000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>113000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>103000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>99000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>109000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>110000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>109000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>107000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>104000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>101000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>95000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>93000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>89000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5547,8 +5748,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5618,8 +5822,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5689,8 +5896,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5760,8 +5970,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5831,79 +6044,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1342000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1621000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1548000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1508000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1633000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1296000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1587000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1680000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1464000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>819000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1578000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2335000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>761000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1606000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1586000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1238000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1624000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1552000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1019000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1013000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1292000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5929,79 +6148,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-53000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-94000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-72000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-82000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-58000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-57000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-58000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-47000</v>
       </c>
       <c r="X91" s="3">
         <v>-47000</v>
       </c>
       <c r="Y91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6071,8 +6294,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6142,79 +6368,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3391000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6188000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3696000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>996000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2397000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>916000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6240,79 +6472,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-151000</v>
       </c>
       <c r="F96" s="3">
         <v>-151000</v>
       </c>
       <c r="G96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-120000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-152000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-120000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-151000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-122000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-153000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-126000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-145000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-118000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-122000</v>
       </c>
       <c r="R96" s="3">
         <v>-122000</v>
       </c>
       <c r="S96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-142000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-137000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-139000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-124000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-127000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-128000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6382,8 +6618,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6453,8 +6692,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6524,79 +6766,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4084000</v>
+      </c>
+      <c r="E100" s="3">
         <v>633000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-611000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-799000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1373000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>170000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2443000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-499000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3589000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2120000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-120000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1557000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1522000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2850000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2253000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>837000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6666,75 +6914,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1689000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1416000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7085000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3500000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3956000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4247000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>852000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>68000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>690000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3711000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1483000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3249000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-162000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,179 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2915000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2736000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2742000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2674000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2589000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2646000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2760000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2681000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2672000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2982000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3039000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3040000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2977000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2937000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2907000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2781000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2636000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2569000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2556000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2476000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2338000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2278000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2258000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -904,8 +910,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1018,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1080,8 +1093,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1170,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,8 +1247,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1302,8 +1324,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1327,156 +1352,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E17" s="3">
         <v>411000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>522000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>454000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>425000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-49000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>383000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>416000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>482000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>584000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1451000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1437000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1432000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1441000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1405000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1249000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1220000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1115000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1040000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>972000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>944000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2325000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2220000</v>
       </c>
       <c r="F18" s="3">
         <v>2220000</v>
       </c>
       <c r="G18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="H18" s="3">
         <v>2164000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2695000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2377000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2265000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2190000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2398000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1588000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1603000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1545000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1496000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1502000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1481000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1387000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1349000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1441000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1376000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1298000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1306000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1314000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1503,156 +1535,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-609000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-707000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-859000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-818000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>58000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-616000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-664000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-609000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-558000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-566000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-605000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-514000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-510000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-493000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-542000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-473000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-431000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-438000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-431000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1592000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1757000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1505000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1541000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2351000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2198000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1138000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1075000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-338000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>45000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1045000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1107000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1090000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1029000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1006000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1077000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>986000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>963000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1003000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1004000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>962000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>961000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>972000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1725,156 +1764,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1618000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1361000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1402000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2222000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2079000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1015000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>959000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-461000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-78000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>924000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>994000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>987000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>930000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>897000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>967000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>877000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>856000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>899000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>903000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>867000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>868000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>883000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E24" s="3">
         <v>376000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>294000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>311000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>524000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>486000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>216000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>188000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-93000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>216000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>224000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>234000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>204000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>210000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>247000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>208000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>190000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>323000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>301000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>321000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>304000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>320000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1947,156 +1995,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1242000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1067000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1091000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1698000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1593000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>799000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>771000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-368000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>708000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>770000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>753000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>726000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>687000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>720000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>669000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>666000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>576000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>602000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>546000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>564000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>563000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1205000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1062000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1055000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1688000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1546000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>795000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>751000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-369000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-78000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>705000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>749000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>747000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>705000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>681000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>699000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>663000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>646000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>548000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>589000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>532000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>551000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>550000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2169,8 +2226,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2267,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2225,12 +2285,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-189000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2243,8 +2303,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2317,8 +2380,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2391,156 +2457,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E32" s="3">
         <v>707000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>859000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>818000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-58000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>616000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1362000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1306000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2651000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2476000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>664000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>609000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>558000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>566000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>605000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>514000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>510000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>493000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>542000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>473000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>431000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>438000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>431000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1205000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1062000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1055000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1688000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1546000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>795000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>751000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-369000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-78000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>705000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>749000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>747000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>705000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>681000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>699000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>663000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>646000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>359000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>589000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>532000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>551000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>550000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2613,161 +2688,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1205000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1062000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1055000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1688000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1546000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>795000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>751000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-369000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-78000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>705000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>749000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>747000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>705000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>681000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>699000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>663000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>646000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>359000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>589000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>532000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>551000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>550000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2794,8 +2878,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2822,90 +2907,94 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11439000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9625000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8750000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12716000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15445000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20348000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13564000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9513000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15138000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10028000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6924000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6075000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10313000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15169000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13299000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16019000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15289000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17011000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13306000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13249000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12950000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15163000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11914000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2917,22 +3006,22 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>2200000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8048000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2549000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
-        <v>1000000</v>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>1000000</v>
@@ -2940,8 +3029,8 @@
       <c r="P42" s="3">
         <v>1000000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
+      <c r="Q42" s="3">
+        <v>1000000</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
@@ -2952,8 +3041,8 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2961,17 +3050,20 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
+      <c r="X42" s="3">
+        <v>0</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3044,8 +3136,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3118,8 +3213,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3192,8 +3290,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3266,82 +3367,88 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E47" s="3">
         <v>377000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>388000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>366000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>343000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>342000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>353000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>323000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>335000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>348000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>336000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>321000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>310000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>284000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>295000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>263000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>275000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>286000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>297000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>349000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>332000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>319000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>326000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3349,73 +3456,76 @@
         <v>984000</v>
       </c>
       <c r="E48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="F48" s="3">
         <v>983000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>987000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>986000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1021000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1027000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1121000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1115000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1070000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1106000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1028000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1008000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>980000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>936000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>896000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>874000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>848000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>825000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>800000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>774000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>750000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>734000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3426,13 +3536,13 @@
         <v>255000</v>
       </c>
       <c r="F49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="G49" s="3">
         <v>256000</v>
       </c>
       <c r="H49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="I49" s="3">
         <v>350000</v>
@@ -3441,28 +3551,28 @@
         <v>350000</v>
       </c>
       <c r="K49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="L49" s="3">
         <v>351000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>410000</v>
       </c>
       <c r="M49" s="3">
         <v>410000</v>
       </c>
       <c r="N49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="O49" s="3">
         <v>414000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>415000</v>
       </c>
       <c r="P49" s="3">
         <v>415000</v>
       </c>
       <c r="Q49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="R49" s="3">
         <v>416000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>417000</v>
       </c>
       <c r="S49" s="3">
         <v>417000</v>
@@ -3471,25 +3581,28 @@
         <v>417000</v>
       </c>
       <c r="U49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="V49" s="3">
         <v>418000</v>
       </c>
       <c r="W49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="X49" s="3">
         <v>419000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>420000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>421000</v>
       </c>
       <c r="Z49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3562,8 +3675,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3636,8 +3752,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3710,8 +3829,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3784,82 +3906,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>114600000</v>
+      </c>
+      <c r="E54" s="3">
         <v>107412000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110242000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108544000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110985000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113871000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112889000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>124349000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113792000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112657000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113996000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>110786000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110707000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110720000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>109553000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105842000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>102751000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>101967000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>100087000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>97608000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>93757000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>94795000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>92308000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3886,8 +4014,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3914,8 +4043,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3988,156 +4118,165 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4122000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2638000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6935000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>5126000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4195000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4217000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11250000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1854000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4759000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5247000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2475000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3672000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6511000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1549000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2773000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3270000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5272000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1201000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2201000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4250000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5100000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4439000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4365000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4214000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4203000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3988000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3961000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3860000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3541000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3591000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3476000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3690000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3594000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4317000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4269000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3436000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4154000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3927000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3722000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4105000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3549000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3196000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3185000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3550000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4210,82 +4349,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15863000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14494000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13292000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18516000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14224000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16816000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17024000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21291000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21340000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21339000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20454000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24254000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22688000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22604000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20717000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25449000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23479000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22974000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21054000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25536000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24237000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>22573000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20343000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4358,8 +4503,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4432,8 +4580,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4506,8 +4657,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4580,82 +4734,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100836000</v>
+      </c>
+      <c r="E66" s="3">
         <v>93979000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>96834000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>95281000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97814000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>101717000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102005000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>114097000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104149000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102992000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102137000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99069000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99214000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99461000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>98423000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>94826000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91862000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91096000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89195000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86421000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>82498000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>83530000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>80985000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4682,8 +4842,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4756,8 +4917,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4830,8 +4994,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4860,7 +5027,7 @@
         <v>1056000</v>
       </c>
       <c r="L70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="M70" s="3">
         <v>563000</v>
@@ -4890,7 +5057,7 @@
         <v>563000</v>
       </c>
       <c r="V70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="W70" s="3">
         <v>560000</v>
@@ -4904,8 +5071,11 @@
       <c r="Z70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4978,82 +5148,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26776000</v>
+      </c>
+      <c r="E72" s="3">
         <v>25833000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24766000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23846000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22936000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21373000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19955000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19292000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18673000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19175000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21290000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20720000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19484000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18906000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18354000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17787000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17211000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16687000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16452000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15989000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15568000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15130000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5126,8 +5302,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5200,8 +5379,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5274,82 +5456,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12708000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12377000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12352000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12207000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12115000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11098000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9828000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9196000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8587000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9102000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11296000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11154000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10930000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10696000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10567000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10453000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10326000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10308000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10329000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10627000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10699000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10705000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10763000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5422,161 +5610,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1205000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1062000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1055000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1688000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1546000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>795000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>751000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-369000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-78000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>705000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>749000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>747000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>705000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>681000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>699000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>663000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>646000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>359000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>589000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>532000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>551000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>550000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5603,82 +5800,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E83" s="3">
         <v>139000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>144000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>139000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>129000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>119000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>123000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>116000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>123000</v>
       </c>
       <c r="L83" s="3">
         <v>123000</v>
       </c>
       <c r="M83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="N83" s="3">
         <v>121000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>113000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>103000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>99000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>109000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>110000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>109000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>107000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>104000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>101000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>95000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>93000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>89000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5751,8 +5952,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5825,8 +6029,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5899,8 +6106,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5973,8 +6183,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6047,82 +6260,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1734000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1342000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1621000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1548000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1508000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1633000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1296000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1587000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1680000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1464000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>819000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1578000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2335000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>761000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1606000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1586000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1238000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1624000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1552000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1019000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1013000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1292000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6149,82 +6368,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-51000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-56000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-53000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-94000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-72000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-77000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-58000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-57000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-58000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-47000</v>
       </c>
       <c r="Y91" s="3">
         <v>-47000</v>
       </c>
       <c r="Z91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6297,8 +6520,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6371,82 +6597,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5794000</v>
+      </c>
+      <c r="E94" s="3">
         <v>661000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3391000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6188000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3696000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>996000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2397000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>916000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6473,82 +6705,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-129000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-151000</v>
       </c>
       <c r="G96" s="3">
         <v>-151000</v>
       </c>
       <c r="H96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-120000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-152000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-120000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-151000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-122000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-153000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-126000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-145000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-118000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-122000</v>
       </c>
       <c r="S96" s="3">
         <v>-122000</v>
       </c>
       <c r="T96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-142000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-137000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-139000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-124000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-127000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-128000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6621,8 +6857,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6695,8 +6934,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6769,82 +7011,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6010000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4084000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>633000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-611000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-799000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1373000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>170000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2443000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-499000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3589000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2120000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-120000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1557000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1522000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2850000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2253000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>837000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6917,78 +7165,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1689000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1416000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7085000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3500000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3956000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4247000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>852000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>68000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>690000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3711000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1483000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3249000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-162000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2915000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2736000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2742000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2674000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2589000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2646000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2760000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2681000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2672000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2982000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3039000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3040000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2977000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2937000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2907000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2781000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2636000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2569000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2556000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2476000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2338000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2278000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2258000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,8 +919,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +999,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,8 +1109,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1173,8 +1189,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,8 +1269,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1327,8 +1349,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1353,162 +1378,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="E17" s="3">
         <v>854000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>411000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>522000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>454000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>425000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-49000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>383000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>416000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>482000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>584000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1451000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1437000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1432000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1441000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1405000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1249000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1220000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1115000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1040000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>972000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>944000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2070000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2061000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2325000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2220000</v>
       </c>
       <c r="G18" s="3">
         <v>2220000</v>
       </c>
       <c r="H18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2164000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2695000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2377000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2265000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2190000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2398000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1588000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1603000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1545000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1496000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1502000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1481000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1387000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1349000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1441000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1376000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1298000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1306000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1314000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1536,162 +1568,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-752000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-609000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-707000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-859000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-818000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>58000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-616000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-664000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-609000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-558000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-566000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-605000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-514000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-510000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-493000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-542000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-473000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-431000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-438000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1592000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1757000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1505000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1541000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2351000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2198000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1138000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1075000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-338000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1045000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1107000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1090000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1029000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1006000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1077000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>986000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>963000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1003000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1004000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>962000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>961000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>972000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1767,162 +1806,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1452000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1618000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1361000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1402000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2222000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2079000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1015000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>959000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-461000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-78000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>924000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>994000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>987000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>930000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>897000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>967000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>877000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>856000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>899000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>903000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>867000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>868000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>883000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E24" s="3">
         <v>341000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>376000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>294000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>311000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>524000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>486000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>216000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>188000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-93000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>216000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>224000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>234000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>204000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>210000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>247000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>208000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>190000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>323000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>301000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>321000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>304000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>320000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1998,162 +2046,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1111000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1242000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1067000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1091000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1698000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1593000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>799000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>771000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-368000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>708000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>770000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>753000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>726000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>687000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>720000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>669000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>666000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>576000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>602000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>546000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>564000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>563000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>967000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1105000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1205000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1062000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1055000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1688000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1546000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>795000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>751000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-369000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-78000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>705000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>749000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>747000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>705000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>681000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>699000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>663000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>646000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>548000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>589000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>532000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>551000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>550000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2229,8 +2286,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,8 +2330,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2288,12 +2348,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-189000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2306,8 +2366,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2383,8 +2446,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2460,162 +2526,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>752000</v>
+      </c>
+      <c r="E32" s="3">
         <v>609000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>707000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>859000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>818000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-58000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>616000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1362000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1306000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2651000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2476000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>664000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>609000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>558000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>566000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>605000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>514000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>510000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>493000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>542000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>473000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>431000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>438000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>431000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>967000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1105000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1205000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1062000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1055000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1688000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1546000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>795000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>751000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-369000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-78000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>705000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>749000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>747000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>705000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>681000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>699000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>663000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>646000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>359000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>589000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>532000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>551000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>550000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2691,167 +2766,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>967000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1105000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1205000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1062000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1055000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1688000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1546000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>795000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>751000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-369000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-78000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>705000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>749000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>747000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>705000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>681000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>699000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>663000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>646000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>359000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>589000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>532000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>551000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>550000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2879,8 +2963,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2908,85 +2993,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10004000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11439000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9625000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8750000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12716000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15445000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20348000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13564000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9513000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15138000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10028000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6924000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6075000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10313000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15169000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13299000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16019000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15289000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17011000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13306000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13249000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12950000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15163000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11914000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2996,8 +3085,8 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3009,22 +3098,22 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>2200000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8048000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2549000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>1000000</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
         <v>1000000</v>
@@ -3032,8 +3121,8 @@
       <c r="Q42" s="3">
         <v>1000000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
+      <c r="R42" s="3">
+        <v>1000000</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
@@ -3044,8 +3133,8 @@
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3053,17 +3142,20 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
+      <c r="Y42" s="3">
+        <v>0</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3139,8 +3231,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3216,8 +3311,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3293,8 +3391,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3370,162 +3471,171 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E47" s="3">
         <v>366000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>377000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>388000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>366000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>343000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>342000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>353000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>323000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>335000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>348000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>336000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>321000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>310000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>284000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>295000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>263000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>275000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>286000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>297000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>349000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>332000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>319000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>326000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>984000</v>
+        <v>1015000</v>
       </c>
       <c r="E48" s="3">
         <v>984000</v>
       </c>
       <c r="F48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="G48" s="3">
         <v>983000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>987000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>986000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1021000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1027000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1121000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1115000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1070000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1106000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1028000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1008000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>980000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>936000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>896000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>874000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>848000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>825000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>800000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>774000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>750000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>734000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3539,13 +3649,13 @@
         <v>255000</v>
       </c>
       <c r="G49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="H49" s="3">
         <v>256000</v>
       </c>
       <c r="I49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="J49" s="3">
         <v>350000</v>
@@ -3554,28 +3664,28 @@
         <v>350000</v>
       </c>
       <c r="L49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="M49" s="3">
         <v>351000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>410000</v>
       </c>
       <c r="N49" s="3">
         <v>410000</v>
       </c>
       <c r="O49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="P49" s="3">
         <v>414000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>415000</v>
       </c>
       <c r="Q49" s="3">
         <v>415000</v>
       </c>
       <c r="R49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="S49" s="3">
         <v>416000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>417000</v>
       </c>
       <c r="T49" s="3">
         <v>417000</v>
@@ -3584,25 +3694,28 @@
         <v>417000</v>
       </c>
       <c r="V49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="W49" s="3">
         <v>418000</v>
       </c>
       <c r="X49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>419000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>420000</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>421000</v>
       </c>
       <c r="AA49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3678,8 +3791,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3755,8 +3871,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3832,8 +3951,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3909,85 +4031,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121886000</v>
+      </c>
+      <c r="E54" s="3">
         <v>114600000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107412000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110242000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108544000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110985000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>113871000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112889000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>124349000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113792000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112657000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113996000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110786000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110707000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>110720000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>109553000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105842000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>102751000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>101967000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>100087000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>97608000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>93757000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>94795000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92308000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4015,8 +4143,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4044,8 +4173,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4121,162 +4251,171 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2331000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4122000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2638000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6935000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>5126000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4195000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4217000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11250000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1854000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4759000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5247000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2475000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3672000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6511000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1549000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2773000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3270000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5272000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1201000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2201000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4250000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5100000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4526000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4439000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4365000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4214000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4203000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3988000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3961000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3860000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3541000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3591000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3476000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3690000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3594000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4317000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4269000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3436000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4154000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3927000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3722000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4105000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3549000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3196000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3185000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3550000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4352,85 +4491,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17846000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15863000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14494000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13292000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18516000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14224000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16816000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17024000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21291000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21340000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21339000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20454000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24254000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22688000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22604000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20717000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25449000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23479000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22974000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21054000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25536000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24237000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>22573000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20343000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4506,8 +4651,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4583,8 +4731,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4660,8 +4811,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4737,85 +4891,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>107600000</v>
+      </c>
+      <c r="E66" s="3">
         <v>100836000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93979000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>96834000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95281000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>97814000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>101717000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102005000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114097000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104149000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102992000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102137000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99069000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99214000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99461000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>98423000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>94826000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91862000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91096000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89195000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86421000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>82498000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>83530000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>80985000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4843,8 +5003,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4920,8 +5081,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4997,8 +5161,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5030,7 +5197,7 @@
         <v>1056000</v>
       </c>
       <c r="M70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="N70" s="3">
         <v>563000</v>
@@ -5060,7 +5227,7 @@
         <v>563000</v>
       </c>
       <c r="W70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="X70" s="3">
         <v>560000</v>
@@ -5074,8 +5241,11 @@
       <c r="AA70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5151,85 +5321,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27585000</v>
+      </c>
+      <c r="E72" s="3">
         <v>26776000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25833000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24766000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23846000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22936000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21373000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19955000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19292000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18673000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19175000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21290000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20720000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20107000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19484000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18906000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18354000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17787000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17211000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16687000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16452000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15989000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15568000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15130000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5305,8 +5481,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5382,8 +5561,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5459,85 +5641,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13230000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12708000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12377000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12352000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12207000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12115000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11098000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9828000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9196000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8587000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9102000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11296000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11154000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10930000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10696000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10567000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10453000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10326000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10308000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10329000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10627000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10699000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10705000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10763000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5613,167 +5801,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>967000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1105000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1205000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1062000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1055000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1688000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1546000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>795000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>751000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-369000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-78000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>705000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>749000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>747000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>705000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>681000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>699000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>663000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>646000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>359000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>589000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>532000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>551000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>550000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5801,85 +5998,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E83" s="3">
         <v>140000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>139000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>144000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>139000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>129000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>119000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>123000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>116000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>123000</v>
       </c>
       <c r="M83" s="3">
         <v>123000</v>
       </c>
       <c r="N83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="O83" s="3">
         <v>121000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>113000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>103000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>99000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>109000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>110000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>109000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>107000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>104000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>101000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>95000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>93000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>89000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5955,8 +6156,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6032,8 +6236,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6109,8 +6316,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6186,8 +6396,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6263,85 +6476,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1612000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1734000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1342000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1621000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1548000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1508000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1633000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1296000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1587000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1680000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1464000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>819000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1578000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2335000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>761000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1606000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1586000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1238000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1624000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1552000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1019000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1013000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1292000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6369,85 +6588,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-51000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-94000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-72000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-82000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-77000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-59000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-58000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-57000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-58000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-47000</v>
       </c>
       <c r="Z91" s="3">
         <v>-47000</v>
       </c>
       <c r="AA91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6523,8 +6746,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6600,85 +6826,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7490000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5794000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>661000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3391000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6188000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3696000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>996000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2397000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>916000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6706,85 +6938,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-183000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-129000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-151000</v>
       </c>
       <c r="H96" s="3">
         <v>-151000</v>
       </c>
       <c r="I96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-120000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-152000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-120000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-151000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-122000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-153000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-126000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-145000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-118000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-122000</v>
       </c>
       <c r="T96" s="3">
         <v>-122000</v>
       </c>
       <c r="U96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-142000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-137000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-139000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-124000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-127000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-128000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6860,8 +7096,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6937,8 +7176,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7014,85 +7256,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6270000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6010000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4084000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>633000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-611000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-799000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1373000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>170000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2443000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-499000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3589000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2120000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-120000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1557000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1522000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2850000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2253000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>837000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7168,81 +7416,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1828000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1689000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1416000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7085000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3500000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3956000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4247000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>852000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>68000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>690000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3711000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1483000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3249000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-162000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,191 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3856000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3357000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2915000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2736000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2742000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2674000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2589000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2646000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2760000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2681000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2672000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2982000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3039000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3040000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2977000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2937000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2907000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2781000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2636000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2569000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2556000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2476000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2338000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2278000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2258000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -922,8 +928,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1011,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1044,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,8 +1125,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1192,8 +1208,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1272,8 +1291,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1352,8 +1374,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1379,168 +1404,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1287000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>854000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>411000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>522000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>454000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>425000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-49000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>383000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>416000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>482000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>584000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1451000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1437000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1432000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1441000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1405000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1249000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1220000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1115000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1100000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1040000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>972000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>944000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2184000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2070000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2061000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2325000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2220000</v>
       </c>
       <c r="H18" s="3">
         <v>2220000</v>
       </c>
       <c r="I18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="J18" s="3">
         <v>2164000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2695000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2377000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2265000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2190000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2398000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1588000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1603000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1545000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1496000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1502000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1481000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1387000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1349000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1441000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1376000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1298000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1306000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1314000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1569,168 +1601,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-830000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-752000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-609000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-707000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-859000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-818000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>58000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-616000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-664000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-609000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-558000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-566000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-605000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-514000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-510000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-493000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-542000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-473000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-431000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-438000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1491000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1463000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1592000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1757000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1505000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1541000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2351000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2198000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1138000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1075000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-338000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1045000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1107000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1090000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1029000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1006000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1077000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>986000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>963000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1003000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1004000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>962000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>961000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>972000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1809,168 +1848,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1354000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1318000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1452000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1618000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1361000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1402000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2222000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2079000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1015000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>959000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-461000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-78000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>924000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>994000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>987000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>930000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>897000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>967000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>877000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>856000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>899000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>903000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>867000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>868000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>883000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E24" s="3">
         <v>312000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>341000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>376000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>294000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>311000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>524000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>486000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>216000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>188000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-93000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>216000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>224000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>234000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>204000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>210000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>247000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>208000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>190000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>323000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>301000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>321000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>304000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>320000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2049,168 +2097,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1006000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1111000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1242000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1067000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1091000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1698000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1593000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>799000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>771000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-368000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-61000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>708000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>770000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>753000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>726000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>687000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>720000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>669000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>666000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>576000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>602000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>546000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>564000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>563000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E27" s="3">
         <v>967000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1105000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1205000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1062000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1055000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1688000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1546000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>795000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>751000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-369000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-78000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>705000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>749000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>747000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>705000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>681000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>699000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>663000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>646000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>548000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>589000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>532000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>551000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>550000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2289,8 +2346,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2333,8 +2393,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2351,12 +2411,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-189000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2369,8 +2429,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2449,8 +2512,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2529,168 +2595,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E32" s="3">
         <v>752000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>609000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>707000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>859000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>818000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-58000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>616000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1362000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1306000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2651000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2476000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>664000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>609000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>558000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>566000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>605000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>514000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>510000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>493000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>542000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>473000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>431000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>438000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>431000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E33" s="3">
         <v>967000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1105000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1205000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1062000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1055000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1688000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1546000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>795000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>751000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-369000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-78000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>705000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>749000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>747000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>705000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>681000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>699000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>663000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>646000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>359000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>589000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>532000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>551000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>550000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2769,173 +2844,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E35" s="3">
         <v>967000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1105000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1205000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1062000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1055000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1688000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1546000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>795000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>751000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-369000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-78000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>705000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>749000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>747000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>705000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>681000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>699000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>663000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>646000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>359000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>589000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>532000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>551000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>550000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2964,8 +3048,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2994,99 +3079,103 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8856000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10004000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11439000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9625000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8750000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12716000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15445000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20348000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13564000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9513000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15138000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10028000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6924000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6075000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10313000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15169000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13299000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16019000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15289000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17011000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13306000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13249000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12950000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15163000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11914000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3101,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>2200000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8048000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2549000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
-        <v>1000000</v>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>1000000</v>
@@ -3124,8 +3213,8 @@
       <c r="R42" s="3">
         <v>1000000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
+      <c r="S42" s="3">
+        <v>1000000</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
@@ -3136,8 +3225,8 @@
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3145,17 +3234,20 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
+      <c r="Z42" s="3">
+        <v>0</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3234,8 +3326,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3314,8 +3409,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3394,8 +3492,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3474,168 +3575,177 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E47" s="3">
         <v>382000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>366000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>377000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>388000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>366000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>343000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>342000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>353000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>323000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>335000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>348000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>336000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>321000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>310000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>284000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>295000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>263000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>275000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>286000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>297000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>349000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>332000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>319000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>326000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1015000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>984000</v>
       </c>
       <c r="F48" s="3">
         <v>984000</v>
       </c>
       <c r="G48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="H48" s="3">
         <v>983000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>987000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>986000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1021000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1027000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1121000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1115000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1070000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1106000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1028000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1008000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>980000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>936000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>896000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>874000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>848000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>825000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>800000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>774000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>750000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>734000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3652,13 +3762,13 @@
         <v>255000</v>
       </c>
       <c r="H49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="I49" s="3">
         <v>256000</v>
       </c>
       <c r="J49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="K49" s="3">
         <v>350000</v>
@@ -3667,28 +3777,28 @@
         <v>350000</v>
       </c>
       <c r="M49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="N49" s="3">
         <v>351000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>410000</v>
       </c>
       <c r="O49" s="3">
         <v>410000</v>
       </c>
       <c r="P49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>414000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>415000</v>
       </c>
       <c r="R49" s="3">
         <v>415000</v>
       </c>
       <c r="S49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="T49" s="3">
         <v>416000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>417000</v>
       </c>
       <c r="U49" s="3">
         <v>417000</v>
@@ -3697,25 +3807,28 @@
         <v>417000</v>
       </c>
       <c r="W49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="X49" s="3">
         <v>418000</v>
       </c>
       <c r="Y49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>419000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>420000</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>421000</v>
       </c>
       <c r="AB49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3794,8 +3907,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3874,8 +3990,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3954,8 +4073,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4034,88 +4156,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>131628000</v>
+      </c>
+      <c r="E54" s="3">
         <v>121886000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>114600000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107412000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110242000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108544000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110985000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113871000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112889000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>124349000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113792000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112657000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113996000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110786000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>110707000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>110720000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>109553000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105842000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>102751000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>101967000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>100087000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>97608000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>93757000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>94795000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>92308000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4144,8 +4272,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4174,8 +4303,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4254,168 +4384,177 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3815000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2331000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4122000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2638000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6935000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>5126000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4195000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4217000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11250000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1854000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4759000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5247000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2475000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3672000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6511000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1549000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2773000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3270000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5272000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1201000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2201000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4250000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5100000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5294000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4526000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4439000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4365000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4214000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4203000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3988000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3961000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3860000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3541000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3591000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3476000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3690000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3594000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4317000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4269000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3436000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4154000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3927000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3722000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4105000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3549000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3196000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3185000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3550000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4494,88 +4633,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16293000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17846000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15863000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14494000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13292000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18516000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14224000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16816000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17024000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21291000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21340000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21339000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20454000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>24254000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22688000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22604000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20717000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25449000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23479000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22974000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21054000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25536000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24237000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>22573000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20343000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4654,8 +4799,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4734,8 +4882,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4814,8 +4965,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4894,88 +5048,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117038000</v>
+      </c>
+      <c r="E66" s="3">
         <v>107600000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100836000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93979000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>96834000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95281000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>97814000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>101717000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102005000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114097000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>104149000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102992000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>102137000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99069000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99214000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>99461000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>98423000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>94826000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91862000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>91096000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89195000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86421000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>82498000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>83530000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>80985000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5004,8 +5164,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5084,8 +5245,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5164,8 +5328,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5200,7 +5367,7 @@
         <v>1056000</v>
       </c>
       <c r="N70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="O70" s="3">
         <v>563000</v>
@@ -5230,7 +5397,7 @@
         <v>563000</v>
       </c>
       <c r="X70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="Y70" s="3">
         <v>560000</v>
@@ -5244,8 +5411,11 @@
       <c r="AB70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5324,88 +5494,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28453000</v>
+      </c>
+      <c r="E72" s="3">
         <v>27585000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>26776000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25833000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24766000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23846000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22936000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21373000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19955000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19292000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18673000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19175000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21290000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20720000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20107000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19484000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18906000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18354000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17787000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17211000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16687000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16452000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15989000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15568000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15130000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5484,8 +5660,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5564,8 +5743,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5644,88 +5826,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13534000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13230000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12708000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12377000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12352000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12207000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12115000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11098000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9828000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9196000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8587000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9102000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11296000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11154000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10930000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10696000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10567000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10453000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10326000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10308000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10329000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10627000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10699000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10705000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10763000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5804,173 +5992,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E81" s="3">
         <v>967000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1105000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1205000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1062000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1055000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1688000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1546000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>795000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>751000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-369000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-78000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>705000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>749000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>747000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>705000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>681000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>699000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>663000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>646000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>359000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>589000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>532000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>551000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>550000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5999,88 +6196,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E83" s="3">
         <v>145000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>140000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>139000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>144000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>139000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>129000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>119000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>123000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>116000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>123000</v>
       </c>
       <c r="N83" s="3">
         <v>123000</v>
       </c>
       <c r="O83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="P83" s="3">
         <v>121000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>113000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>103000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>99000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>109000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>110000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>109000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>107000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>104000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>101000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>95000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>93000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>89000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6159,8 +6360,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6239,8 +6443,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6319,8 +6526,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6399,8 +6609,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6479,88 +6692,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2175000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1619000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1612000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1734000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1342000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1621000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1548000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1508000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1633000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1296000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1587000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1680000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1464000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>819000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1578000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2335000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>761000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1606000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1586000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1238000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1624000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1552000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1019000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1013000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1292000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6589,88 +6808,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-79000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-94000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-72000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-77000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-59000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-58000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-57000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-47000</v>
       </c>
       <c r="AA91" s="3">
         <v>-47000</v>
       </c>
       <c r="AB91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6749,8 +6972,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6829,88 +7055,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13014000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7490000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5794000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>661000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3391000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6188000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3696000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>996000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2397000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>916000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6939,88 +7171,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-166000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-183000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-129000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-151000</v>
       </c>
       <c r="I96" s="3">
         <v>-151000</v>
       </c>
       <c r="J96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-120000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-152000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-120000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-151000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-122000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-153000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-145000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-118000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-122000</v>
       </c>
       <c r="U96" s="3">
         <v>-122000</v>
       </c>
       <c r="V96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-142000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-137000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-139000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-124000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-127000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-128000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7099,8 +7335,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7179,8 +7418,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7259,88 +7501,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7866000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6270000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6010000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4084000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>633000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-611000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-799000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1373000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>170000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2443000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-499000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3589000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2120000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-120000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1557000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1522000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2850000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2253000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>837000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7419,84 +7667,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2973000</v>
+      </c>
+      <c r="E102" s="3">
         <v>399000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1828000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1689000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1416000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7085000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3956000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4247000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>852000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>68000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>690000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3711000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1483000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3249000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-162000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,197 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4077000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3856000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3357000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2915000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2736000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2742000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2674000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2589000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2646000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2760000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2681000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2672000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2982000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3039000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3040000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2977000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2937000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2907000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2781000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2636000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2569000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2556000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2476000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2338000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2278000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2258000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,8 +937,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1023,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,8 +1057,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1141,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1211,8 +1227,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1294,8 +1313,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1377,8 +1399,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1405,174 +1430,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2047000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1672000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1287000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>854000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>411000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>522000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>454000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>425000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-49000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>383000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>416000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>482000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>584000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1451000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1437000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1432000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1441000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1405000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1249000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1220000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1115000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1100000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1040000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>972000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>944000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2030000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2184000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2070000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2061000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2325000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2220000</v>
       </c>
       <c r="I18" s="3">
         <v>2220000</v>
       </c>
       <c r="J18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2164000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2695000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2377000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2265000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2190000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2398000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1588000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1603000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1545000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1496000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1502000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1481000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1387000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1349000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1441000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1376000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1298000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1306000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1314000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1602,174 +1634,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-762000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-830000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-752000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-609000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-707000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-859000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-818000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>58000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-616000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-664000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-609000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-558000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-566000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-605000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-514000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-510000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-493000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-542000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-473000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-438000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1491000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1463000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1592000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1757000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1505000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1541000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2351000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2198000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1138000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1075000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-338000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1107000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1090000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1029000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1006000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1077000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>986000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>963000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1003000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1004000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>962000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>961000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>972000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,174 +1890,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1354000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1318000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1452000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1618000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1361000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1402000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2222000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2079000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1015000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>959000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-461000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-78000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>924000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>994000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>987000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>930000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>897000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>967000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>877000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>856000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>899000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>903000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>867000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>868000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>883000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E24" s="3">
         <v>321000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>312000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>341000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>376000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>294000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>311000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>524000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>486000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>216000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>188000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-93000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-17000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>216000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>224000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>234000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>204000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>210000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>247000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>208000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>190000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>323000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>301000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>321000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>304000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>320000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2100,174 +2148,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1033000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1006000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1111000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1242000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1067000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1091000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1698000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1593000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>799000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>771000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-368000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-61000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>708000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>770000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>753000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>726000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>687000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>720000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>669000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>666000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>576000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>602000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>546000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>564000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>563000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>939000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1027000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>967000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1105000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1205000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1062000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1055000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1688000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1546000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>795000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>751000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-369000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-78000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>705000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>749000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>747000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>705000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>681000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>699000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>663000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>646000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>548000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>589000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>532000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>551000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>550000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2349,8 +2406,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2456,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2414,12 +2474,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-189000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2432,8 +2492,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2515,8 +2578,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2598,174 +2664,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E32" s="3">
         <v>830000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>752000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>609000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>707000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>859000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>818000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-58000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>616000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1362000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1306000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2651000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2476000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>664000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>609000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>558000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>566000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>605000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>514000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>510000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>493000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>542000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>473000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>431000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>438000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>431000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>939000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1027000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>967000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1105000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1205000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1062000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1055000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1688000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1546000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>795000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>751000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-369000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-78000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>705000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>749000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>747000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>705000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>681000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>699000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>663000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>646000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>359000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>589000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>532000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>551000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>550000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2847,179 +2922,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>939000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1027000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>967000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1105000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1205000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1062000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1055000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1688000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1546000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>795000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>751000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-369000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-78000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>705000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>749000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>747000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>705000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>681000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>699000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>663000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>646000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>359000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>589000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>532000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>551000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>550000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3049,8 +3133,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3080,91 +3165,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10130000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8856000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10004000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11439000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9625000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8750000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12716000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15445000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20348000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13564000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9513000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15138000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10028000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6924000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6075000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10313000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15169000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13299000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16019000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15289000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17011000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13306000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13249000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12950000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15163000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11914000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3193,22 +3282,22 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>2200000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8048000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2549000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>1000000</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R42" s="3">
         <v>1000000</v>
@@ -3216,8 +3305,8 @@
       <c r="S42" s="3">
         <v>1000000</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
+      <c r="T42" s="3">
+        <v>1000000</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
@@ -3228,8 +3317,8 @@
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3237,17 +3326,20 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
+      <c r="AA42" s="3">
+        <v>0</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3329,8 +3421,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3412,8 +3507,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3495,8 +3593,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3578,174 +3679,183 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E47" s="3">
         <v>416000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>382000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>366000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>377000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>388000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>366000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>343000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>342000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>353000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>323000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>335000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>348000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>336000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>321000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>310000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>284000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>295000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>263000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>275000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>286000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>297000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>349000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>332000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>319000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>326000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1003000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1015000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>984000</v>
       </c>
       <c r="G48" s="3">
         <v>984000</v>
       </c>
       <c r="H48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="I48" s="3">
         <v>983000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>987000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>986000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1021000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1027000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1121000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1115000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1070000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1106000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1028000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1008000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>980000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>936000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>896000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>874000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>848000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>825000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>800000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>774000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>750000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>734000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3765,13 +3875,13 @@
         <v>255000</v>
       </c>
       <c r="I49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="J49" s="3">
         <v>256000</v>
       </c>
       <c r="K49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="L49" s="3">
         <v>350000</v>
@@ -3780,28 +3890,28 @@
         <v>350000</v>
       </c>
       <c r="N49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="O49" s="3">
         <v>351000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>410000</v>
       </c>
       <c r="P49" s="3">
         <v>410000</v>
       </c>
       <c r="Q49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="R49" s="3">
         <v>414000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>415000</v>
       </c>
       <c r="S49" s="3">
         <v>415000</v>
       </c>
       <c r="T49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="U49" s="3">
         <v>416000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>417000</v>
       </c>
       <c r="V49" s="3">
         <v>417000</v>
@@ -3810,25 +3920,28 @@
         <v>417000</v>
       </c>
       <c r="X49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="Y49" s="3">
         <v>418000</v>
       </c>
       <c r="Z49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>419000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>420000</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>421000</v>
       </c>
       <c r="AC49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3910,8 +4023,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3993,8 +4109,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4076,8 +4195,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4159,91 +4281,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>133061000</v>
+      </c>
+      <c r="E54" s="3">
         <v>131628000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121886000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>114600000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107412000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110242000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108544000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>110985000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113871000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112889000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>124349000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113792000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112657000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113996000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>110786000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>110707000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110720000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>109553000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105842000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>102751000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>101967000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>100087000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>97608000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>93757000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>94795000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>92308000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4273,8 +4401,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4304,8 +4433,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4387,174 +4517,183 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1841000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3815000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2331000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4122000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2638000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6935000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>5126000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4195000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4217000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11250000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1854000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4759000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5247000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2475000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3672000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6511000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1549000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2773000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3270000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5272000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1201000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2201000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4250000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5100000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4843000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5294000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4526000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4439000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4365000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4214000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4203000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3988000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3961000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3860000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3541000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3591000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3476000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3690000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3594000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4317000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4269000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3436000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4154000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3927000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3722000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4105000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3549000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3196000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3185000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3550000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4636,91 +4775,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16322000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16293000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17846000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15863000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14494000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13292000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18516000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14224000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16816000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17024000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21291000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21340000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21339000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20454000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24254000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22688000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22604000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20717000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25449000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23479000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22974000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21054000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>25536000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24237000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>22573000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>20343000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4802,8 +4947,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4885,8 +5033,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4968,8 +5119,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5051,91 +5205,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>118746000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117038000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>107600000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100836000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93979000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96834000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95281000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>97814000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>101717000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102005000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>114097000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104149000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>102992000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>102137000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99069000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>99214000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>99461000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>98423000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>94826000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>91862000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>91096000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89195000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86421000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>82498000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>83530000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>80985000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5165,8 +5325,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5248,8 +5409,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5331,8 +5495,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5370,7 +5537,7 @@
         <v>1056000</v>
       </c>
       <c r="O70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="P70" s="3">
         <v>563000</v>
@@ -5400,7 +5567,7 @@
         <v>563000</v>
       </c>
       <c r="Y70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="Z70" s="3">
         <v>560000</v>
@@ -5414,8 +5581,11 @@
       <c r="AC70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5497,91 +5667,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29292000</v>
+      </c>
+      <c r="E72" s="3">
         <v>28453000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>27585000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>26776000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25833000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>24766000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23846000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22936000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21373000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19955000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19292000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18673000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19175000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21290000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20720000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20107000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19484000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18906000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18354000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17787000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17211000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16687000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16452000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15989000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15568000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15130000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5663,8 +5839,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5746,8 +5925,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5829,91 +6011,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13259000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13534000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13230000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12708000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12377000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12352000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12207000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12115000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11098000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9828000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9196000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8587000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9102000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11296000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11154000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10930000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10696000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10567000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10453000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10326000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10308000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10329000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10627000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10699000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10705000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10763000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5995,179 +6183,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>939000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1027000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>967000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1105000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1205000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1062000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1055000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1688000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1546000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>795000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>751000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-369000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-78000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>705000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>749000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>747000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>705000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>681000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>699000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>663000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>646000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>359000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>589000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>532000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>551000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>550000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6197,91 +6394,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E83" s="3">
         <v>137000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>140000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>139000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>144000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>139000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>129000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>119000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>123000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>116000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>123000</v>
       </c>
       <c r="O83" s="3">
         <v>123000</v>
       </c>
       <c r="P83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>121000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>113000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>103000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>99000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>109000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>110000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>109000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>107000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>104000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>101000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>95000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>93000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>89000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6363,8 +6564,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6446,8 +6650,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6529,8 +6736,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6612,8 +6822,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6695,91 +6908,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2175000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1619000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1612000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1734000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1342000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1621000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1548000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1508000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1633000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1296000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1587000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1680000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1464000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>819000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1578000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2335000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>761000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1606000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1586000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1238000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1624000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1552000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1019000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1013000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1292000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6809,91 +7028,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-94000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-82000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-77000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-59000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-58000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-57000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-47000</v>
       </c>
       <c r="AB91" s="3">
         <v>-47000</v>
       </c>
       <c r="AC91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6975,8 +7198,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7058,91 +7284,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1229000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13014000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7490000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5794000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>661000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3391000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6188000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3696000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>996000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2397000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>916000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7172,91 +7404,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-165000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-166000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-183000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-129000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-151000</v>
       </c>
       <c r="J96" s="3">
         <v>-151000</v>
       </c>
       <c r="K96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-120000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-152000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-120000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-151000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-122000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-126000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-145000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-118000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-122000</v>
       </c>
       <c r="V96" s="3">
         <v>-122000</v>
       </c>
       <c r="W96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-142000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-137000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-139000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-124000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-127000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-128000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7338,8 +7574,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7421,8 +7660,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7504,91 +7746,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7866000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6270000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6010000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4084000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>633000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-611000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-799000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1373000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>170000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2443000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-499000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3589000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2120000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-120000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1557000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1522000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2850000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2253000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>837000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7670,87 +7918,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2973000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>399000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1828000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1689000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1416000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7085000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3956000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4247000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>852000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>68000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>690000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3711000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1483000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3249000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-162000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,203 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4290000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4077000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3856000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3357000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2915000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2736000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2742000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2674000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2589000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2646000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2760000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2681000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2672000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2982000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3039000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3040000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2977000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2937000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2907000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2781000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2636000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2569000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2556000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2476000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2338000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2278000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2258000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -940,8 +946,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1035,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1070,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,8 +1157,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,8 +1246,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1316,8 +1335,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1424,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1431,180 +1456,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2418000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2047000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1672000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1287000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>854000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>411000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>522000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>454000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>425000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-49000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>383000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>416000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>482000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>584000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1451000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1437000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1432000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1441000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1405000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1249000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1220000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1115000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1100000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1040000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>972000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>944000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1872000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2030000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2184000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2070000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2061000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2325000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2220000</v>
       </c>
       <c r="J18" s="3">
         <v>2220000</v>
       </c>
       <c r="K18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="L18" s="3">
         <v>2164000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2695000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2377000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2265000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2190000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2398000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1588000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1603000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1545000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1496000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1502000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1481000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1387000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1349000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1441000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1376000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1298000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1306000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1314000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1635,180 +1667,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-762000</v>
+        <v>-703000</v>
       </c>
       <c r="E20" s="3">
+        <v>-773000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-830000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-752000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-620000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-707000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-859000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-818000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>58000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-616000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1362000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1306000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-2651000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2476000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-664000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-609000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-707000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-859000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-818000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>58000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-616000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1362000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1306000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2651000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2476000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-664000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-609000</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-558000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-566000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-605000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-514000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-510000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-493000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-542000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-473000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-438000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1397000</v>
+        <v>1288000</v>
       </c>
       <c r="E21" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1491000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1463000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1592000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1757000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1505000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1541000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2351000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2198000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1138000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1075000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-338000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>45000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1045000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1107000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1090000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1029000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1006000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1077000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>986000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>963000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1003000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1004000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>962000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>961000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>972000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1893,180 +1932,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1268000</v>
+        <v>1169000</v>
       </c>
       <c r="E23" s="3">
+        <v>1257000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1354000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1318000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1452000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1618000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1361000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1402000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2222000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2079000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1015000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>959000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-461000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>924000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>994000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>987000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>930000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>897000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>967000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>877000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>856000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>899000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>903000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>867000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>868000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>883000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>292000</v>
+        <v>268000</v>
       </c>
       <c r="E24" s="3">
+        <v>289000</v>
+      </c>
+      <c r="F24" s="3">
         <v>321000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>312000</v>
       </c>
-      <c r="G24" s="3">
-        <v>341000</v>
-      </c>
       <c r="H24" s="3">
+        <v>338000</v>
+      </c>
+      <c r="I24" s="3">
         <v>376000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>294000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>311000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>524000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>486000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>216000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>188000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-93000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>216000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>224000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>234000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>204000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>210000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>247000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>208000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>190000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>323000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>301000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>321000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>304000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>320000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2151,180 +2199,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>976000</v>
+        <v>901000</v>
       </c>
       <c r="E26" s="3">
+        <v>968000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1033000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1006000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1111000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1103000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1242000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1067000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1091000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1698000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1593000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>799000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>771000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-368000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>708000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>770000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>753000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>726000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>687000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>720000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>669000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>666000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>576000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>602000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>546000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>564000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>563000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>939000</v>
+        <v>895000</v>
       </c>
       <c r="E27" s="3">
+        <v>931000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1027000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>967000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1105000</v>
-      </c>
       <c r="H27" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1205000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1062000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1055000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1688000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1546000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>795000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>751000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-369000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>705000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>749000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>747000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>705000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>681000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>699000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>663000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>646000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>548000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>589000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>532000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>551000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>550000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2409,8 +2466,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2459,8 +2519,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2477,12 +2537,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-189000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2555,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2581,8 +2644,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2667,180 +2733,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>762000</v>
+        <v>703000</v>
       </c>
       <c r="E32" s="3">
+        <v>773000</v>
+      </c>
+      <c r="F32" s="3">
         <v>830000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>752000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>620000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>707000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>859000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>818000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>616000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2651000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2476000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>664000</v>
+      </c>
+      <c r="S32" s="3">
         <v>609000</v>
       </c>
-      <c r="H32" s="3">
-        <v>707000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>859000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>818000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-58000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>616000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1362000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1306000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2651000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2476000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>664000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>609000</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>558000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>566000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>605000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>514000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>510000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>493000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>542000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>473000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>431000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>438000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>431000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>939000</v>
+        <v>895000</v>
       </c>
       <c r="E33" s="3">
+        <v>931000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1027000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>967000</v>
       </c>
-      <c r="G33" s="3">
-        <v>1105000</v>
-      </c>
       <c r="H33" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="I33" s="3">
         <v>1205000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1062000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1055000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1688000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1546000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>795000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>751000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-369000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>705000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>749000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>747000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>705000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>681000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>699000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>663000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>646000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>359000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>589000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>532000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>551000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>550000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2925,185 +3000,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>939000</v>
+        <v>895000</v>
       </c>
       <c r="E35" s="3">
+        <v>931000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1027000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>967000</v>
       </c>
-      <c r="G35" s="3">
-        <v>1105000</v>
-      </c>
       <c r="H35" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="I35" s="3">
         <v>1205000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1062000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1055000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1688000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1546000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>795000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>751000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-369000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>705000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>749000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>747000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>705000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>681000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>699000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>663000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>646000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>359000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>589000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>532000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>551000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>550000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3134,8 +3218,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3166,94 +3251,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8605000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10130000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8856000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10004000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11439000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9625000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8750000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12716000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15445000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20348000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13564000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9513000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15138000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10028000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6924000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6075000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10313000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15169000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13299000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16019000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15289000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17011000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13306000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13249000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12950000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15163000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11914000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3285,22 +3374,22 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>2200000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8048000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2549000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
-        <v>1000000</v>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S42" s="3">
         <v>1000000</v>
@@ -3308,8 +3397,8 @@
       <c r="T42" s="3">
         <v>1000000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
+      <c r="U42" s="3">
+        <v>1000000</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
@@ -3320,8 +3409,8 @@
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3329,17 +3418,20 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
+      <c r="AB42" s="3">
+        <v>0</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3424,8 +3516,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3510,8 +3605,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3596,8 +3694,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3682,180 +3783,189 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E47" s="3">
         <v>406000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>416000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>382000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>366000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>377000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>388000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>366000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>343000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>342000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>353000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>323000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>335000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>348000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>336000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>321000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>310000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>284000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>295000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>263000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>275000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>286000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>297000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>349000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>332000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>319000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>326000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1053000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1031000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1003000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1015000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>984000</v>
       </c>
       <c r="H48" s="3">
         <v>984000</v>
       </c>
       <c r="I48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="J48" s="3">
         <v>983000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>987000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>986000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1021000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1027000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1121000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1115000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1070000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1106000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1028000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1008000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>980000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>936000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>896000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>874000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>848000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>825000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>800000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>774000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>750000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>734000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3878,13 +3988,13 @@
         <v>255000</v>
       </c>
       <c r="J49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="K49" s="3">
         <v>256000</v>
       </c>
       <c r="L49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="M49" s="3">
         <v>350000</v>
@@ -3893,28 +4003,28 @@
         <v>350000</v>
       </c>
       <c r="O49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="P49" s="3">
         <v>351000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>410000</v>
       </c>
       <c r="Q49" s="3">
         <v>410000</v>
       </c>
       <c r="R49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="S49" s="3">
         <v>414000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>415000</v>
       </c>
       <c r="T49" s="3">
         <v>415000</v>
       </c>
       <c r="U49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="V49" s="3">
         <v>416000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>417000</v>
       </c>
       <c r="W49" s="3">
         <v>417000</v>
@@ -3923,25 +4033,28 @@
         <v>417000</v>
       </c>
       <c r="Y49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="Z49" s="3">
         <v>418000</v>
       </c>
       <c r="AA49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>419000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>420000</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>421000</v>
       </c>
       <c r="AD49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4026,8 +4139,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4112,8 +4228,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4198,8 +4317,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4284,94 +4406,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138082000</v>
+      </c>
+      <c r="E54" s="3">
         <v>133061000</v>
       </c>
-      <c r="E54" s="3">
-        <v>131628000</v>
-      </c>
       <c r="F54" s="3">
+        <v>131706000</v>
+      </c>
+      <c r="G54" s="3">
         <v>121886000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>114600000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>107412000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110242000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108544000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110985000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113871000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112889000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124349000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113792000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112657000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113996000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>110786000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110707000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>110720000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>109553000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105842000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>102751000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>101967000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>100087000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>97608000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>93757000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>94795000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>92308000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4402,8 +4530,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4434,8 +4563,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4520,180 +4650,189 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1837000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1841000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3815000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2331000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4122000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2638000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6935000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>5126000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4195000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4217000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11250000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1854000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4759000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5247000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2475000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3672000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6511000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1549000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2773000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3270000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5272000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1201000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2201000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4250000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5100000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4963000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4843000</v>
       </c>
-      <c r="E59" s="3">
-        <v>5294000</v>
-      </c>
       <c r="F59" s="3">
+        <v>5618000</v>
+      </c>
+      <c r="G59" s="3">
         <v>4526000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4439000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4365000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4214000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4203000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3988000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3961000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3860000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3541000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3591000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3476000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3690000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3594000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4317000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4269000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3436000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4154000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3927000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3722000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4105000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3549000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3196000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3185000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3550000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4778,94 +4917,100 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18439000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16322000</v>
       </c>
-      <c r="E61" s="3">
-        <v>16293000</v>
-      </c>
       <c r="F61" s="3">
+        <v>20108000</v>
+      </c>
+      <c r="G61" s="3">
         <v>17846000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15863000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14494000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13292000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18516000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14224000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16816000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17024000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21291000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21340000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21339000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20454000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24254000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22688000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22604000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20717000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25449000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23479000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>22974000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21054000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>25536000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24237000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>22573000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>20343000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4950,8 +5095,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5036,8 +5184,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5122,8 +5273,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5208,94 +5362,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124226000</v>
+      </c>
+      <c r="E66" s="3">
         <v>118746000</v>
       </c>
-      <c r="E66" s="3">
-        <v>117038000</v>
-      </c>
       <c r="F66" s="3">
+        <v>117362000</v>
+      </c>
+      <c r="G66" s="3">
         <v>107600000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100836000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93979000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96834000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95281000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97814000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>101717000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102005000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>114097000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104149000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>102992000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>102137000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>99069000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>99214000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>99461000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>98423000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>94826000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>91862000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>91096000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89195000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>86421000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>82498000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>83530000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>80985000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5326,8 +5486,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5412,8 +5573,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5498,8 +5662,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5540,7 +5707,7 @@
         <v>1056000</v>
       </c>
       <c r="P70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="Q70" s="3">
         <v>563000</v>
@@ -5570,7 +5737,7 @@
         <v>563000</v>
       </c>
       <c r="Z70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="AA70" s="3">
         <v>560000</v>
@@ -5584,8 +5751,11 @@
       <c r="AD70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5670,94 +5840,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29761000</v>
+      </c>
+      <c r="E72" s="3">
         <v>29292000</v>
       </c>
-      <c r="E72" s="3">
-        <v>28453000</v>
-      </c>
       <c r="F72" s="3">
+        <v>28207000</v>
+      </c>
+      <c r="G72" s="3">
         <v>27585000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>26776000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25833000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>24766000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23846000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22936000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21373000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19955000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19292000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18673000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19175000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21290000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20720000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20107000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19484000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18906000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18354000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17787000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17211000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16687000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16452000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15989000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15568000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>15130000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5842,8 +6018,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5928,8 +6107,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6014,94 +6196,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12800000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13259000</v>
       </c>
-      <c r="E76" s="3">
-        <v>13534000</v>
-      </c>
       <c r="F76" s="3">
+        <v>13288000</v>
+      </c>
+      <c r="G76" s="3">
         <v>13230000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12708000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12377000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12352000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12207000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12115000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11098000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9828000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9196000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8587000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9102000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11296000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11154000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10930000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10696000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10567000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10453000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10326000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10308000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10329000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10627000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10699000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10705000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10763000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6186,185 +6374,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>939000</v>
+        <v>895000</v>
       </c>
       <c r="E81" s="3">
+        <v>931000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1027000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>967000</v>
       </c>
-      <c r="G81" s="3">
-        <v>1105000</v>
-      </c>
       <c r="H81" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="I81" s="3">
         <v>1205000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1062000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1055000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1688000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1546000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>795000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>751000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-369000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>705000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>749000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>747000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>705000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>681000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>699000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>663000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>646000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>359000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>589000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>532000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>551000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>550000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6395,94 +6592,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E83" s="3">
         <v>129000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>137000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>140000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>139000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>144000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>139000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>129000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>119000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>123000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>116000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>123000</v>
       </c>
       <c r="P83" s="3">
         <v>123000</v>
       </c>
       <c r="Q83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="R83" s="3">
         <v>121000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>113000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>103000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>99000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>109000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>110000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>109000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>107000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>104000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>101000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>95000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>93000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>89000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6567,8 +6768,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6653,8 +6857,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6739,8 +6946,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6825,8 +7035,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6911,94 +7124,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1791000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2175000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1619000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1612000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1734000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1342000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1621000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1548000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1508000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1633000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1296000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1587000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1680000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1464000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>819000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1578000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2335000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>761000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1606000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1586000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1238000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1624000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1552000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1019000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1013000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1292000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7029,94 +7248,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-76000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-49000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-41000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-53000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-94000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-72000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-69000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-82000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-59000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-60000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-57000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-58000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-47000</v>
       </c>
       <c r="AC91" s="3">
         <v>-47000</v>
       </c>
       <c r="AD91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7201,8 +7424,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7287,94 +7513,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7604000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1229000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13014000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7490000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5794000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>661000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3391000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6188000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3696000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>996000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2397000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>916000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7405,94 +7637,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-192000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-144000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-165000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-166000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-183000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-129000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-151000</v>
       </c>
       <c r="K96" s="3">
         <v>-151000</v>
       </c>
       <c r="L96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-120000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-152000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-120000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-151000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-153000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-126000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-145000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-118000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-122000</v>
       </c>
       <c r="W96" s="3">
         <v>-122000</v>
       </c>
       <c r="X96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-142000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-137000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-139000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-124000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-127000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-128000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7577,8 +7813,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7663,8 +7902,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7749,94 +7991,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4578000</v>
+      </c>
+      <c r="E100" s="3">
         <v>704000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7866000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6270000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6010000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4084000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>633000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-611000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-799000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1373000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>170000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2443000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-30000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-499000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3589000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2120000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-120000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1557000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1522000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2850000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2253000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>837000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7921,90 +8169,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1519000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1266000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2973000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>399000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1828000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1689000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1416000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7085000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3956000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4247000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>852000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>68000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>690000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3711000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1483000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3249000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-162000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1459000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>DFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,209 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4610000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4290000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4077000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3856000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3357000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2915000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2736000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2742000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2674000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2589000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2646000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2760000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2681000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2672000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2982000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3039000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3040000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2977000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2937000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2907000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2781000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2636000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2569000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2556000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2476000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2338000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2278000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2258000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,8 +955,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,8 +1047,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1083,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1249,8 +1265,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1338,8 +1357,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1427,8 +1449,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1457,186 +1482,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2990000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2418000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2047000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1672000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1287000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>854000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>411000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>522000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>454000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>425000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-49000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>383000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>416000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>482000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>584000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1451000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1437000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1432000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1441000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1405000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1249000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1220000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1115000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1100000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1040000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>972000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>944000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1620000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1872000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2030000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2184000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2070000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2061000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2325000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2220000</v>
       </c>
       <c r="K18" s="3">
         <v>2220000</v>
       </c>
       <c r="L18" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="M18" s="3">
         <v>2164000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2695000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2377000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2265000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2190000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2398000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1588000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1603000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1545000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1496000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1502000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1481000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1387000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1349000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1441000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1376000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1298000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1306000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1314000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1668,186 +1700,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-732000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-703000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-773000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-830000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-752000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-743000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-620000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-707000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-859000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-818000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>58000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-616000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1362000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1306000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2651000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2476000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-664000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-609000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-558000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-566000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-605000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-514000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-510000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-493000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-542000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-473000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-438000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-431000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-419000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>994000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1288000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1386000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1491000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1463000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1472000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1581000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1757000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1505000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1541000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2351000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2198000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1138000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1075000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-338000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>45000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1045000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1107000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1090000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1029000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1006000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1077000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>986000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>963000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1003000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1004000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>962000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>961000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>972000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1047000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1935,186 +1974,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1169000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1257000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1354000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1318000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1441000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1618000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1361000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1402000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2222000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2079000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1015000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>959000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-461000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-78000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>924000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>994000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>987000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>930000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>897000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>967000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>877000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>856000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>899000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>903000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>867000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>868000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>883000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>961000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E24" s="3">
         <v>268000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>289000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>321000</v>
       </c>
-      <c r="G24" s="3">
-        <v>312000</v>
-      </c>
       <c r="H24" s="3">
+        <v>314000</v>
+      </c>
+      <c r="I24" s="3">
         <v>338000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>376000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>294000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>311000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>524000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>486000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>216000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>188000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-17000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>216000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>224000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>234000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>204000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>210000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>247000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>208000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>190000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>323000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>301000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>321000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>304000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>320000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2202,186 +2250,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E26" s="3">
         <v>901000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>968000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1033000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1006000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1103000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1242000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1067000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1091000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1698000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1593000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>799000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>771000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-368000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-61000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>708000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>770000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>753000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>726000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>687000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>720000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>669000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>666000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>576000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>602000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>546000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>564000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>563000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>639000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E27" s="3">
         <v>895000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>931000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1027000</v>
       </c>
-      <c r="G27" s="3">
-        <v>967000</v>
-      </c>
       <c r="H27" s="3">
+        <v>975000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1097000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1205000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1062000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1055000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1688000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1546000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>795000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>751000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-78000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>705000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>749000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>747000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>705000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>681000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>699000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>663000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>646000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>548000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>589000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>532000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>551000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>550000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2469,8 +2526,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2522,8 +2582,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2540,12 +2600,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-189000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2558,8 +2618,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2647,8 +2710,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2736,186 +2802,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E32" s="3">
         <v>703000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>773000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>830000</v>
       </c>
-      <c r="G32" s="3">
-        <v>752000</v>
-      </c>
       <c r="H32" s="3">
+        <v>743000</v>
+      </c>
+      <c r="I32" s="3">
         <v>620000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>707000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>859000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>818000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-58000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>616000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1362000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1306000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2651000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2476000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>664000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>609000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>558000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>566000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>605000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>514000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>510000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>493000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>542000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>473000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>431000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>438000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>431000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>419000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E33" s="3">
         <v>895000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>931000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1027000</v>
       </c>
-      <c r="G33" s="3">
-        <v>967000</v>
-      </c>
       <c r="H33" s="3">
+        <v>975000</v>
+      </c>
+      <c r="I33" s="3">
         <v>1097000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1205000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1062000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1055000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1688000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1546000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>795000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>751000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-78000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>705000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>749000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>747000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>705000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>681000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>699000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>663000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>646000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>359000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>589000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>532000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>551000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>550000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3003,191 +3078,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E35" s="3">
         <v>895000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>931000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1027000</v>
       </c>
-      <c r="G35" s="3">
-        <v>967000</v>
-      </c>
       <c r="H35" s="3">
+        <v>975000</v>
+      </c>
+      <c r="I35" s="3">
         <v>1097000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1205000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1062000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1055000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1688000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1546000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>795000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>751000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-78000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>705000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>749000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>747000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>705000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>681000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>699000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>663000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>646000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>359000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>589000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>532000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>551000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>550000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3219,8 +3303,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3252,97 +3337,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9194000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8605000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10130000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8856000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10004000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11439000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9625000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8750000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12716000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15445000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20348000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13564000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9513000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15138000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10028000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6924000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6075000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10313000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15169000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13299000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16019000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15289000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17011000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13306000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13249000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>12950000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>15163000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>11914000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>12076000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3377,22 +3466,22 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>2200000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8048000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2549000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>1000000</v>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T42" s="3">
         <v>1000000</v>
@@ -3400,8 +3489,8 @@
       <c r="U42" s="3">
         <v>1000000</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
+      <c r="V42" s="3">
+        <v>1000000</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
@@ -3412,8 +3501,8 @@
       <c r="Y42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3421,17 +3510,20 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
+      <c r="AC42" s="3">
+        <v>0</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF42" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3519,8 +3611,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3608,8 +3703,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3697,8 +3795,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3786,186 +3887,195 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E47" s="3">
         <v>411000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>406000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>416000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>382000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>366000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>377000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>388000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>366000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>343000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>342000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>353000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>323000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>335000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>348000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>336000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>321000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>310000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>284000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>295000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>263000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>275000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>286000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>297000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>349000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>332000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>319000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>326000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>298000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1053000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1031000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1003000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1015000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>984000</v>
       </c>
       <c r="I48" s="3">
         <v>984000</v>
       </c>
       <c r="J48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K48" s="3">
         <v>983000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>987000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>986000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1021000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1027000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1121000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1115000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1070000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1106000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1028000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1008000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>980000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>936000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>896000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>874000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>848000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>825000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>800000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>774000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>750000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>734000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>722000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3991,13 +4101,13 @@
         <v>255000</v>
       </c>
       <c r="K49" s="3">
-        <v>256000</v>
+        <v>255000</v>
       </c>
       <c r="L49" s="3">
         <v>256000</v>
       </c>
       <c r="M49" s="3">
-        <v>350000</v>
+        <v>256000</v>
       </c>
       <c r="N49" s="3">
         <v>350000</v>
@@ -4006,28 +4116,28 @@
         <v>350000</v>
       </c>
       <c r="P49" s="3">
+        <v>350000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>351000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>410000</v>
       </c>
       <c r="R49" s="3">
         <v>410000</v>
       </c>
       <c r="S49" s="3">
+        <v>410000</v>
+      </c>
+      <c r="T49" s="3">
         <v>414000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>415000</v>
       </c>
       <c r="U49" s="3">
         <v>415000</v>
       </c>
       <c r="V49" s="3">
+        <v>415000</v>
+      </c>
+      <c r="W49" s="3">
         <v>416000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>417000</v>
       </c>
       <c r="X49" s="3">
         <v>417000</v>
@@ -4036,25 +4146,28 @@
         <v>417000</v>
       </c>
       <c r="Z49" s="3">
-        <v>418000</v>
+        <v>417000</v>
       </c>
       <c r="AA49" s="3">
         <v>418000</v>
       </c>
       <c r="AB49" s="3">
+        <v>418000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>419000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>420000</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>421000</v>
       </c>
       <c r="AE49" s="3">
         <v>421000</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4142,8 +4255,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4231,8 +4347,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4320,8 +4439,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4409,97 +4531,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>143432000</v>
+      </c>
+      <c r="E54" s="3">
         <v>138082000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133061000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>131706000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121886000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>114600000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>107412000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>110242000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108544000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110985000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113871000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112889000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>124349000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113792000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112657000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113996000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110786000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>110707000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>110720000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>109553000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>105842000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>102751000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>101967000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>100087000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>97608000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>93757000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>94795000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>92308000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>90541000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4531,8 +4659,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4564,8 +4693,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4653,186 +4783,195 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1837000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1841000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3815000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2331000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4122000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2638000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6935000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>5126000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4195000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4217000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11250000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1854000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4759000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5247000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2475000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3672000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6511000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1549000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2773000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3270000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5272000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1201000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2201000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4250000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5100000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1250000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5710000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4963000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4843000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5618000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4526000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4439000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4365000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4214000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4203000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3988000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3961000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3860000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3541000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3591000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3476000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3690000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3594000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4317000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4269000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3436000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4154000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3927000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3722000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4105000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3549000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3196000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3185000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3550000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3119000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4920,97 +5059,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18935000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18439000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16322000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20108000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17846000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15863000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14494000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13292000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18516000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14224000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16816000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17024000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21291000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21340000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21339000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20454000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24254000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22688000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22604000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20717000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25449000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23479000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>22974000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21054000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>25536000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>24237000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>22573000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>20343000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>25580000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5098,8 +5243,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5187,8 +5335,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5276,8 +5427,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5365,97 +5519,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>129196000</v>
+      </c>
+      <c r="E66" s="3">
         <v>124226000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>118746000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117362000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>107600000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100836000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93979000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96834000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95281000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97814000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>101717000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102005000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>114097000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>104149000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>102992000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>102137000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>99069000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>99214000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>99461000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>98423000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>94826000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>91862000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>91096000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89195000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>86421000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>82498000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>83530000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>80985000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>79194000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5487,8 +5647,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5576,8 +5737,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5665,8 +5829,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5710,7 +5877,7 @@
         <v>1056000</v>
       </c>
       <c r="Q70" s="3">
-        <v>563000</v>
+        <v>1056000</v>
       </c>
       <c r="R70" s="3">
         <v>563000</v>
@@ -5740,7 +5907,7 @@
         <v>563000</v>
       </c>
       <c r="AA70" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="AB70" s="3">
         <v>560000</v>
@@ -5754,8 +5921,11 @@
       <c r="AE70" s="3">
         <v>560000</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5843,97 +6013,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30236000</v>
+      </c>
+      <c r="E72" s="3">
         <v>29761000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29292000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28207000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>27585000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>26776000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>25833000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>24766000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23846000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22936000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21373000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19955000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19292000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18673000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19175000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21290000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20720000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20107000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19484000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18906000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18354000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17787000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>17211000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16687000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16452000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15989000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>15568000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>15130000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>14696000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6021,8 +6197,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6110,8 +6289,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6199,97 +6381,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13180000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12800000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13259000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13288000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13230000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12708000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12377000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12352000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12207000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12115000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11098000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9828000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9196000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8587000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9102000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11296000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11154000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10930000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10696000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10567000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10453000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10326000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10308000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10329000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10627000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10699000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10705000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10763000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>10787000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6377,191 +6565,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E81" s="3">
         <v>895000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>931000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1027000</v>
       </c>
-      <c r="G81" s="3">
-        <v>967000</v>
-      </c>
       <c r="H81" s="3">
+        <v>975000</v>
+      </c>
+      <c r="I81" s="3">
         <v>1097000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1205000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1062000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1055000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1688000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1546000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>795000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>751000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-78000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>705000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>749000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>747000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>705000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>681000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>699000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>663000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>646000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>359000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>589000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>532000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>551000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>550000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>625000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6593,97 +6790,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E83" s="3">
         <v>119000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>129000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>137000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>145000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>140000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>139000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>144000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>129000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>119000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>123000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>116000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>123000</v>
       </c>
       <c r="Q83" s="3">
         <v>123000</v>
       </c>
       <c r="R83" s="3">
+        <v>123000</v>
+      </c>
+      <c r="S83" s="3">
         <v>121000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>113000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>103000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>99000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>109000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>110000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>109000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>107000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>104000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>101000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>95000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>93000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>89000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6771,8 +6972,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6860,8 +7064,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6949,8 +7156,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7038,8 +7248,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7127,97 +7340,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1507000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1791000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2175000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1619000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1612000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1734000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1342000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1621000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1548000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1508000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1633000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1296000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1587000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1680000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1464000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>819000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1578000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2335000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>761000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1606000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1586000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1238000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1624000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1552000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1019000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1013000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1292000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1317000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7249,97 +7468,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-82000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-72000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-61000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-69000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-82000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-77000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-59000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-57000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-58000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-56000</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-47000</v>
       </c>
       <c r="AD91" s="3">
         <v>-47000</v>
       </c>
       <c r="AE91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="AF91" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7427,8 +7650,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7516,97 +7742,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5836000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7604000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1229000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13014000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7490000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5794000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>661000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3391000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1510000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6188000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3696000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5575000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>996000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2397000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3055000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6030000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4421000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1768000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5814000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2645000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>916000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4273000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2919000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1568000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2291000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-2007000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7638,97 +7870,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-192000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-144000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-165000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-166000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-183000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-129000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-147000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-151000</v>
       </c>
       <c r="L96" s="3">
         <v>-151000</v>
       </c>
       <c r="M96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-120000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-152000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-120000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-122000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-153000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-126000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-145000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-118000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-151000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-122000</v>
       </c>
       <c r="X96" s="3">
         <v>-122000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-142000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-137000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-139000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-124000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-127000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-128000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7816,8 +8052,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7905,8 +8144,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7994,97 +8236,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4036000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4578000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>704000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7866000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6270000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6010000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4084000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>633000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3731000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4607000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-611000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1829000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-799000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1373000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>170000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2443000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-499000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3589000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2120000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-120000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1557000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1522000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2850000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1664000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2253000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>837000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>2149000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8172,93 +8420,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1519000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1266000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2973000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>399000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1828000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1689000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1416000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3620000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4306000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7085000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3500000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5078000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3956000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4247000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>852000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5241000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3860000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>68000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1464000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>690000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1179000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3711000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1483000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2213000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3249000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-162000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1459000</v>
       </c>
     </row>
